--- a/Raw_data_cleaned/Burley/Burley27.xlsx
+++ b/Raw_data_cleaned/Burley/Burley27.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25250A17-602D-4176-9A84-C28754858689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09FF5E21-F135-4C26-B41C-9FF169377C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="5730" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="3800" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
   <dimension ref="A1:BE530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="A1:BE530"/>
+      <selection sqref="A1:BE530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Raw_data_cleaned/Burley/Burley27.xlsx
+++ b/Raw_data_cleaned/Burley/Burley27.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitvaraaravithya/Documents/tobacco_project_review/Raw_data_cleaned/Burley/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25250A17-602D-4176-9A84-C28754858689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A296B212-78C7-9046-9EE9-46047966D1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="5730" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4120" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,16 +355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B9AF02-60A8-FC45-8851-57BAEFFEA3ED}">
   <dimension ref="A1:BE530"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="A1:BE530"/>
+    <sheetView tabSelected="1" zoomScale="32" workbookViewId="0">
+      <selection sqref="A1:BE530"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>6.7000000000000002E-4</v>
       </c>
@@ -710,7 +710,7 @@
         <v>284.711209930042</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1.34E-3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>278.58834397112514</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2.0110000000000002E-3</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>273.34812257880037</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2.6809999999999998E-3</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>268.66569665923566</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.3509999999999998E-3</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>264.37980432681945</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4.0210000000000003E-3</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>260.4030678488927</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6.032E-3</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>249.83479499526703</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6.7019999999999996E-3</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>246.66795968248135</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1.0723999999999999E-2</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>230.22360792609012</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1.1394E-2</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>227.819864870949</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1.2064E-2</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>225.49338842588435</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1.2735E-2</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>223.23574804952455</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1.3405E-2</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>221.04910283059218</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1.4075000000000001E-2</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>218.92594049463551</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1.6756E-2</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>210.99637509604401</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1.7426000000000001E-2</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>209.14158276748952</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2.4129000000000001E-2</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>192.79033286573286</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2.6138999999999999E-2</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>188.52830516671892</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2.8819999999999998E-2</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>183.21227593045984</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.3512E-2</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>174.77630022817033</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.9544000000000003E-2</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>165.25582237933628</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>4.1555000000000002E-2</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>162.35846775262451</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>4.3566000000000001E-2</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>159.58235519999829</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>4.4235999999999998E-2</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>158.68285487274088</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>4.8927999999999999E-2</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>152.71012114862384</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>5.0937999999999997E-2</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>150.31228665343335</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>5.2278999999999999E-2</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>148.76161506846654</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>5.4289999999999998E-2</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>146.50575895512821</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>5.4960000000000002E-2</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>145.77196575951638</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>5.5629999999999999E-2</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>145.04676372737288</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>5.6971000000000001E-2</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>143.62040299063517</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>6.0322000000000001E-2</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>140.19515500840873</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>6.0991999999999998E-2</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>139.53294215315819</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>6.2331999999999999E-2</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>138.23002907832603</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>6.3003000000000003E-2</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>137.58811553227054</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>6.4342999999999997E-2</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>136.32657166998129</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>6.5013000000000001E-2</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>135.70573776075003</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>6.8364999999999995E-2</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>132.69463299013452</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>6.9034999999999999E-2</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>132.11098854739754</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>7.2386000000000006E-2</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>129.27747673020207</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>7.3055999999999996E-2</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>128.72740342191793</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>7.7077999999999994E-2</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>125.53337233770607</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>7.9088000000000006E-2</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>124.0030133457695</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>8.3110000000000003E-2</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>121.06279229093674</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>8.6460999999999996E-2</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>118.72902936875145</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>8.7802000000000005E-2</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>117.82282010531755</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>8.9812000000000003E-2</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>116.49281500904864</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>9.3163999999999997E-2</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>114.34692311290952</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>9.3834000000000001E-2</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>113.92837734381784</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>9.4504000000000005E-2</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>113.51318146817682</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>9.7184999999999994E-2</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>111.88442699376506</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>9.9196000000000006E-2</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>110.69582691669513</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0.100536</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>109.91898209403283</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0.101206</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>109.53499223589131</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>0.103217</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>108.39975515145964</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>0.10388699999999999</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>108.02717818860597</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0.10589800000000001</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>106.92536071637569</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0.107239</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>106.2040338697807</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>0.107909</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>105.84756015871682</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>0.109249</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>105.14229571875013</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>0.10992</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>104.79292588688567</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0.11058999999999999</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>104.44655998622592</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>0.11126</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>104.10264656790443</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>0.113271</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>103.08483832098538</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0.113941</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>102.75045851976894</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0.114611</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>102.41839351583636</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0.115282</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>102.08812659049363</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0.116622</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>101.43534341267878</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0.117962</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>100.79141014652211</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0.12131400000000001</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>99.218105777900576</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>0.130027</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>95.361804283913159</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0.13270799999999999</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>94.237936704287719</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>0.134718</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>93.413415594281886</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0.13672899999999999</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>92.603466306122883</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>0.14075099999999999</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>91.026785988239936</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>0.14142099999999999</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>90.76955627158577</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>0.14410200000000001</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>89.755203995373179</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>0.14611299999999999</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>89.009655152430852</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>0.147453</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>88.519952594411492</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0.14879400000000001</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>88.035433555008353</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>0.151475</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>87.082996176749319</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0.152145</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>86.848285520076331</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>0.15281500000000001</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>86.614874568613601</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0.15482599999999999</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>85.92198236029401</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0.156166</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>85.46657436136536</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>0.156836</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>85.240723651614744</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>0.15750700000000001</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>85.015759638830986</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>0.160188</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>84.128919691760473</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>0.16219800000000001</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>83.476350484030789</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0.16286900000000001</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>83.260798315688746</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>0.16353899999999999</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>83.04669760941907</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>0.164879</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>82.621846105889432</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>0.16622000000000001</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>82.201086439938621</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>0.16689000000000001</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>81.992492727601828</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>0.168901</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>81.372811416610517</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>0.170241</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>80.965147515804162</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>0.17091200000000001</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>80.762563536347088</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>0.17158200000000001</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>80.561303705113474</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>0.17225199999999999</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>80.361057013040963</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>0.173592</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>79.963570201505092</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>0.17560300000000001</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>79.374444891436156</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>0.17694399999999999</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>78.986442107569331</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>0.18029500000000001</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>78.033371922611295</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>0.18163499999999999</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>77.658700653462063</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>0.182976</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>77.287349013476984</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>0.183646</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>77.103143139191147</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>0.18431600000000001</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>76.919815359387044</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>0.18565699999999999</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>76.555496780075586</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>0.187668</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>76.015581073923272</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>0.18833800000000001</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>75.837385167949051</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>0.18900800000000001</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>75.660021591873971</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>0.191689</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>74.958507078067427</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>0.192359</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>74.785213709178251</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>0.19302900000000001</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>74.612716053726459</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>0.19370000000000001</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>74.440752536699463</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>0.19503999999999999</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>74.099685478625034</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>0.19571</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>73.930313604980299</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>0.19906199999999999</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>73.094353487239204</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>0.19973199999999999</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>72.929502459396744</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>0.200402</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>72.765385612872379</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>0.20174300000000001</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>72.439091234857173</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>0.20308300000000001</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>72.11591552036522</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>0.20375299999999999</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>71.955392780694041</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>0.205094</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>71.636215539949902</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>0.205764</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>71.477789182633884</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>0.20643400000000001</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>71.320051486443163</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>0.20710500000000001</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v>71.162763739680457</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>0.20777499999999999</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>71.006389987343553</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>0.20844499999999999</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>70.850690593407307</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>0.209115</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>70.695660884443797</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>0.209786</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>70.541066331706716</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>0.21112600000000001</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>70.234315861431185</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>0.21313699999999999</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>69.778839785602869</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>0.214477</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>69.478539308689562</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>0.215147</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>69.329335566652574</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>0.21581800000000001</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>69.180535851186221</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>0.21648800000000001</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>69.032579465078399</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>0.21782799999999999</v>
       </c>
@@ -24411,7 +24411,7 @@
         <v>68.738513372580798</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>0.218499</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>68.592177810602593</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>0.219169</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>68.446665442238086</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>0.22050900000000001</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>68.157438640183244</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>0.22117999999999999</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>68.013502214020122</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>0.22252</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>67.727821802454386</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>0.223861</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>67.44425520978416</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>0.22520100000000001</v>
       </c>
@@ -25622,7 +25622,7 @@
         <v>67.163195064308866</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>0.227882</v>
       </c>
@@ -25795,7 +25795,7 @@
         <v>66.607633214630937</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>0.22855200000000001</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>66.470182985716306</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>0.22922300000000001</v>
       </c>
@@ -26141,7 +26141,7 @@
         <v>66.333076916461522</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>0.22989299999999999</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>66.196720159592331</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>0.231903</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>65.790882744276146</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>0.23391400000000001</v>
       </c>
@@ -26660,7 +26660,7 @@
         <v>65.389624898040836</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>0.23525499999999999</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>65.124666625765045</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>0.235925</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>64.993059850849718</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>0.236595</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>64.861964242332974</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>0.23860600000000001</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>64.47151970193724</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>0.25469199999999997</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>61.503359324417282</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>0.25670199999999999</v>
       </c>
@@ -27698,7 +27698,7 @@
         <v>61.150713217842288</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>0.26072400000000001</v>
       </c>
@@ -27871,7 +27871,7 @@
         <v>60.456462291246105</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>0.263405</v>
       </c>
@@ -28044,7 +28044,7 @@
         <v>60.001915966492227</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>0.264075</v>
       </c>
@@ -28217,7 +28217,7 @@
         <v>59.889328560884501</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>0.26675599999999999</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>59.442771444404464</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>0.27077699999999999</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>58.784656726437696</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>0.27144800000000002</v>
       </c>
@@ -28736,7 +28736,7 @@
         <v>58.67616646040883</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>0.27211800000000003</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>58.568212366838246</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>0.27412900000000001</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>58.246415555402443</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>0.27748</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>57.717493432214816</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>0.27949099999999999</v>
       </c>
@@ -29428,7 +29428,7 @@
         <v>57.404370454154694</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>0.280831</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>57.197481390177153</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>0.281501</v>
       </c>
@@ -29774,7 +29774,7 @@
         <v>57.094557774674989</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>0.28217199999999998</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>56.991826107869564</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>0.28351199999999999</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>56.787696501878919</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>0.28485300000000002</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>56.584773280334367</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>0.28686299999999998</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>56.283129520224627</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>0.28954400000000002</v>
       </c>
@@ -30639,7 +30639,7 @@
         <v>55.885408149380218</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>0.29021400000000003</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>55.786828206032546</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>0.290885</v>
       </c>
@@ -30985,7 +30985,7 @@
         <v>55.688423677841975</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>0.29155500000000001</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>55.590486192440487</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>0.29222500000000001</v>
       </c>
@@ -31331,7 +31331,7 @@
         <v>55.492867191239633</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>0.29289500000000002</v>
       </c>
@@ -31504,7 +31504,7 @@
         <v>55.395565020902929</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>0.294236</v>
       </c>
@@ -31677,7 +31677,7 @@
         <v>55.201760563453099</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>0.29691699999999999</v>
       </c>
@@ -31850,7 +31850,7 @@
         <v>54.818029916189722</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>0.29758699999999999</v>
       </c>
@@ -32023,7 +32023,7 @@
         <v>54.722901159923445</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>0.29892800000000003</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>54.533413295293819</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>0.29959799999999998</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>54.439192397588563</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>0.30026799999999998</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>54.345270895813719</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>0.30093799999999998</v>
       </c>
@@ -32715,7 +32715,7 @@
         <v>54.251647271935617</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>0.30160900000000002</v>
       </c>
@@ -32888,7 +32888,7 @@
         <v>54.158180944887171</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>0.30227900000000002</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>54.0651490040838</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>0.30294900000000002</v>
       </c>
@@ -33234,7 +33234,7 @@
         <v>53.972410448207889</v>
       </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>0.30361900000000003</v>
       </c>
@@ -33407,7 +33407,7 @@
         <v>53.879963801156329</v>
       </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>0.30429</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>53.787670266843953</v>
       </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>0.30563000000000001</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>53.604224233171031</v>
       </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>0.30630000000000002</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>53.512931089909948</v>
       </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>0.30697099999999999</v>
       </c>
@@ -34099,7 +34099,7 @@
         <v>53.421787003253932</v>
       </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>0.307641</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>53.331062221921705</v>
       </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>0.308311</v>
       </c>
@@ -34445,7 +34445,7 @@
         <v>53.240619294381808</v>
       </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>0.30898100000000001</v>
       </c>
@@ -34618,7 +34618,7 @@
         <v>53.150456824038535</v>
       </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>0.312332</v>
       </c>
@@ -34791,7 +34791,7 @@
         <v>52.703670808127008</v>
       </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>0.31300299999999998</v>
       </c>
@@ -34964,7 +34964,7 @@
         <v>52.615030787749824</v>
       </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>0.31367299999999998</v>
       </c>
@@ -35137,7 +35137,7 @@
         <v>52.526794011330786</v>
       </c>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>0.31501299999999999</v>
       </c>
@@ -35310,7 +35310,7 @@
         <v>52.351127996623269</v>
       </c>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>0.31568400000000002</v>
       </c>
@@ -35483,7 +35483,7 @@
         <v>52.263565843577688</v>
       </c>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>0.31702399999999997</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>52.089498740884373</v>
       </c>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>0.31769399999999998</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>52.002860531246775</v>
       </c>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>0.31836500000000001</v>
       </c>
@@ -36002,7 +36002,7 @@
         <v>51.916355461475113</v>
       </c>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>0.31903500000000001</v>
       </c>
@@ -36175,7 +36175,7 @@
         <v>51.830240107517575</v>
       </c>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>0.31970500000000002</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>51.744384101294138</v>
       </c>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>0.32305600000000001</v>
       </c>
@@ -36521,7 +36521,7 @@
         <v>51.318824950053532</v>
       </c>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>0.32439699999999999</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>51.150299645088516</v>
       </c>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>0.32707799999999998</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>50.816363242497353</v>
       </c>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>0.32774799999999998</v>
       </c>
@@ -37040,7 +37040,7 @@
         <v>50.733525698409629</v>
       </c>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>0.32841799999999999</v>
       </c>
@@ -37213,7 +37213,7 @@
         <v>50.650931934818225</v>
       </c>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>0.33311000000000002</v>
       </c>
@@ -37386,7 +37386,7 @@
         <v>50.079265148992612</v>
       </c>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>0.33579100000000001</v>
       </c>
@@ -37559,7 +37559,7 @@
         <v>49.757810697344588</v>
       </c>
     </row>
-    <row r="216" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>0.33646100000000001</v>
       </c>
@@ -37732,7 +37732,7 @@
         <v>49.678056237408988</v>
       </c>
     </row>
-    <row r="217" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>0.33713100000000001</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>49.598531252115983</v>
       </c>
     </row>
-    <row r="218" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>0.33780199999999999</v>
       </c>
@@ -38078,7 +38078,7 @@
         <v>49.519116506966832</v>
       </c>
     </row>
-    <row r="219" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>0.338472</v>
       </c>
@@ -38251,7 +38251,7 @@
         <v>49.440047661337651</v>
       </c>
     </row>
-    <row r="220" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>0.34115299999999998</v>
       </c>
@@ -38424,7 +38424,7 @@
         <v>49.125908869057589</v>
       </c>
     </row>
-    <row r="221" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>0.34182299999999999</v>
       </c>
@@ -38597,7 +38597,7 @@
         <v>49.047961791043939</v>
       </c>
     </row>
-    <row r="222" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>0.34249299999999999</v>
       </c>
@@ -38770,7 +38770,7 @@
         <v>48.970235954712557</v>
       </c>
     </row>
-    <row r="223" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>0.34383399999999997</v>
       </c>
@@ -38943,7 +38943,7 @@
         <v>48.815328824161263</v>
       </c>
     </row>
-    <row r="224" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>0.34584500000000001</v>
       </c>
@@ -39116,7 +39116,7 @@
         <v>48.584662180277142</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>0.34651500000000002</v>
       </c>
@@ -39289,7 +39289,7 @@
         <v>48.508243652772983</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>0.34718500000000002</v>
       </c>
@@ -39462,7 +39462,7 @@
         <v>48.432039493520229</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>0.34852499999999997</v>
       </c>
@@ -39635,7 +39635,7 @@
         <v>48.280270456205834</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>0.35053600000000001</v>
       </c>
@@ -39808,7 +39808,7 @@
         <v>48.054088915657836</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>0.351877</v>
       </c>
@@ -39981,7 +39981,7 @@
         <v>47.904310242924652</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>0.35522799999999999</v>
       </c>
@@ -40154,7 +40154,7 @@
         <v>47.53363806462125</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>0.356568</v>
       </c>
@@ -40327,7 +40327,7 @@
         <v>47.38683656643726</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>0.35723899999999997</v>
       </c>
@@ -40500,7 +40500,7 @@
         <v>47.313628205470344</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>0.35992000000000002</v>
       </c>
@@ -40673,7 +40673,7 @@
         <v>47.023112612124017</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>0.36126000000000003</v>
       </c>
@@ -40846,7 +40846,7 @@
         <v>46.879090419960058</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>0.36192999999999997</v>
       </c>
@@ -41019,7 +41019,7 @@
         <v>46.807371633843914</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>0.365952</v>
       </c>
@@ -41192,7 +41192,7 @@
         <v>46.38088841665467</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>0.37131399999999998</v>
       </c>
@@ -41365,7 +41365,7 @@
         <v>45.822868671353206</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>0.37198399999999998</v>
       </c>
@@ -41538,7 +41538,7 @@
         <v>45.753972037611241</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>0.37265399999999999</v>
       </c>
@@ -41711,7 +41711,7 @@
         <v>45.685257162561669</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>0.37399500000000002</v>
       </c>
@@ -41884,7 +41884,7 @@
         <v>45.548267756422945</v>
       </c>
     </row>
-    <row r="241" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>0.37801600000000002</v>
       </c>
@@ -42057,7 +42057,7 @@
         <v>45.141790280219844</v>
       </c>
     </row>
-    <row r="242" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>0.379357</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>45.007640184202607</v>
       </c>
     </row>
-    <row r="243" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>0.380027</v>
       </c>
@@ -42403,7 +42403,7 @@
         <v>44.940876050565265</v>
       </c>
     </row>
-    <row r="244" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>0.38069700000000001</v>
       </c>
@@ -42576,7 +42576,7 @@
         <v>44.874284804654401</v>
       </c>
     </row>
-    <row r="245" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>0.38807000000000003</v>
       </c>
@@ -42749,7 +42749,7 @@
         <v>44.152701463098907</v>
       </c>
     </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>0.38873999999999997</v>
       </c>
@@ -42922,7 +42922,7 @@
         <v>44.08813121582174</v>
       </c>
     </row>
-    <row r="247" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>0.39007999999999998</v>
       </c>
@@ -43095,7 +43095,7 @@
         <v>43.959481871971882</v>
       </c>
     </row>
-    <row r="248" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>0.39075100000000001</v>
       </c>
@@ -43268,7 +43268,7 @@
         <v>43.895305934711104</v>
       </c>
     </row>
-    <row r="249" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>0.39142100000000002</v>
       </c>
@@ -43441,7 +43441,7 @@
         <v>43.831387723582687</v>
       </c>
     </row>
-    <row r="250" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>0.39209100000000002</v>
       </c>
@@ -43614,7 +43614,7 @@
         <v>43.767630824530102</v>
       </c>
     </row>
-    <row r="251" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>0.393432</v>
       </c>
@@ -43787,7 +43787,7 @@
         <v>43.640503816442653</v>
       </c>
     </row>
-    <row r="252" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>0.39544200000000002</v>
       </c>
@@ -43960,7 +43960,7 @@
         <v>43.45114963633965</v>
       </c>
     </row>
-    <row r="253" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>0.396783</v>
       </c>
@@ -44133,7 +44133,7 @@
         <v>43.325608597322798</v>
       </c>
     </row>
-    <row r="254" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>0.40080399999999999</v>
       </c>
@@ -44306,7 +44306,7 @@
         <v>42.952904930775944</v>
       </c>
     </row>
-    <row r="255" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>0.40147500000000003</v>
       </c>
@@ -44479,7 +44479,7 @@
         <v>42.891248961682017</v>
       </c>
     </row>
-    <row r="256" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>0.40214499999999997</v>
       </c>
@@ -44652,7 +44652,7 @@
         <v>42.829836959731018</v>
       </c>
     </row>
-    <row r="257" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>0.40281499999999998</v>
       </c>
@@ -44825,7 +44825,7 @@
         <v>42.76857632852704</v>
       </c>
     </row>
-    <row r="258" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>0.40549600000000002</v>
       </c>
@@ -44998,7 +44998,7 @@
         <v>42.52494527546817</v>
       </c>
     </row>
-    <row r="259" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>0.40616600000000003</v>
       </c>
@@ -45171,7 +45171,7 @@
         <v>42.464432890883444</v>
       </c>
     </row>
-    <row r="260" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>0.40750700000000001</v>
       </c>
@@ -45344,7 +45344,7 @@
         <v>42.343761363012348</v>
       </c>
     </row>
-    <row r="261" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>0.40817700000000001</v>
       </c>
@@ -45517,7 +45517,7 @@
         <v>42.28369106012935</v>
       </c>
     </row>
-    <row r="262" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>0.410188</v>
       </c>
@@ -45690,7 +45690,7 @@
         <v>42.104265880802224</v>
       </c>
     </row>
-    <row r="263" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>0.411528</v>
       </c>
@@ -45863,7 +45863,7 @@
         <v>41.985432033664026</v>
       </c>
     </row>
-    <row r="264" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>0.41621999999999998</v>
       </c>
@@ -46036,7 +46036,7 @@
         <v>41.573826517176016</v>
       </c>
     </row>
-    <row r="265" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>0.41688999999999998</v>
       </c>
@@ -46209,7 +46209,7 @@
         <v>41.515613539565408</v>
       </c>
     </row>
-    <row r="266" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>0.41755999999999999</v>
       </c>
@@ -46382,7 +46382,7 @@
         <v>41.457539592614864</v>
       </c>
     </row>
-    <row r="267" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>0.41823100000000002</v>
       </c>
@@ -46555,7 +46555,7 @@
         <v>41.399517781452658</v>
       </c>
     </row>
-    <row r="268" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>0.41890100000000002</v>
       </c>
@@ -46728,7 +46728,7 @@
         <v>41.341720522179763</v>
       </c>
     </row>
-    <row r="269" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>0.41957100000000003</v>
       </c>
@@ -46901,7 +46901,7 @@
         <v>41.284060719081673</v>
       </c>
     </row>
-    <row r="270" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>0.42024099999999998</v>
       </c>
@@ -47074,7 +47074,7 @@
         <v>41.226537853044519</v>
       </c>
     </row>
-    <row r="271" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>0.42091200000000001</v>
       </c>
@@ -47247,7 +47247,7 @@
         <v>41.169065857940865</v>
       </c>
     </row>
-    <row r="272" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>0.42225200000000002</v>
       </c>
@@ -47420,7 +47420,7 @@
         <v>41.054700580944022</v>
       </c>
     </row>
-    <row r="273" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>0.43364599999999998</v>
       </c>
@@ -47593,7 +47593,7 @@
         <v>40.103652019466743</v>
       </c>
     </row>
-    <row r="274" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>0.43431599999999998</v>
       </c>
@@ -47766,7 +47766,7 @@
         <v>40.048890480287412</v>
       </c>
     </row>
-    <row r="275" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>0.44101899999999999</v>
       </c>
@@ -47939,7 +47939,7 @@
         <v>39.507899410928644</v>
       </c>
     </row>
-    <row r="276" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>0.44302900000000001</v>
       </c>
@@ -48112,7 +48112,7 @@
         <v>39.348068069553044</v>
       </c>
     </row>
-    <row r="277" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>0.44973200000000002</v>
       </c>
@@ -48285,7 +48285,7 @@
         <v>38.822821855767423</v>
       </c>
     </row>
-    <row r="278" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>0.455094</v>
       </c>
@@ -48458,7 +48458,7 @@
         <v>38.411043648230567</v>
       </c>
     </row>
-    <row r="279" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>0.45777499999999999</v>
       </c>
@@ -48631,7 +48631,7 @@
         <v>38.207878403628015</v>
       </c>
     </row>
-    <row r="280" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>0.459115</v>
       </c>
@@ -48804,7 +48804,7 @@
         <v>38.107003205595525</v>
       </c>
     </row>
-    <row r="281" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>0.45978599999999997</v>
       </c>
@@ -48977,7 +48977,7 @@
         <v>38.056656637668574</v>
       </c>
     </row>
-    <row r="282" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>0.46112599999999998</v>
       </c>
@@ -49150,7 +49150,7 @@
         <v>37.956443768030098</v>
       </c>
     </row>
-    <row r="283" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>0.46179599999999998</v>
       </c>
@@ -49323,7 +49323,7 @@
         <v>37.906501588100937</v>
       </c>
     </row>
-    <row r="284" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>0.46983900000000001</v>
       </c>
@@ -49496,7 +49496,7 @@
         <v>37.315372927348108</v>
       </c>
     </row>
-    <row r="285" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>0.47184999999999999</v>
       </c>
@@ -49669,7 +49669,7 @@
         <v>37.16995215328815</v>
       </c>
     </row>
-    <row r="286" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>0.47587099999999999</v>
       </c>
@@ -49842,7 +49842,7 @@
         <v>36.881970131345284</v>
       </c>
     </row>
-    <row r="287" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>0.48123300000000002</v>
       </c>
@@ -50015,7 +50015,7 @@
         <v>36.503618162596311</v>
       </c>
     </row>
-    <row r="288" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>0.482574</v>
       </c>
@@ -50188,7 +50188,7 @@
         <v>36.409990170323283</v>
       </c>
     </row>
-    <row r="289" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>0.48793599999999998</v>
       </c>
@@ -50361,7 +50361,7 @@
         <v>36.039518500191917</v>
       </c>
     </row>
-    <row r="290" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>0.49530800000000003</v>
       </c>
@@ -50534,7 +50534,7 @@
         <v>35.540127031168439</v>
       </c>
     </row>
-    <row r="291" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>0.50737299999999996</v>
       </c>
@@ -50707,7 +50707,7 @@
         <v>34.746712197628192</v>
       </c>
     </row>
-    <row r="292" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>0.51072399999999996</v>
       </c>
@@ -50880,7 +50880,7 @@
         <v>34.531417596175956</v>
       </c>
     </row>
-    <row r="293" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>0.51608600000000004</v>
       </c>
@@ -51053,7 +51053,7 @@
         <v>34.191359158586643</v>
       </c>
     </row>
-    <row r="294" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>0.51876699999999998</v>
       </c>
@@ -51226,7 +51226,7 @@
         <v>34.023342272748152</v>
       </c>
     </row>
-    <row r="295" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>0.52010699999999999</v>
       </c>
@@ -51399,7 +51399,7 @@
         <v>33.939860675888738</v>
       </c>
     </row>
-    <row r="296" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>0.52077700000000005</v>
       </c>
@@ -51572,7 +51572,7 @@
         <v>33.898242824278334</v>
       </c>
     </row>
-    <row r="297" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>0.52278800000000003</v>
       </c>
@@ -51745,7 +51745,7 @@
         <v>33.773816312537477</v>
       </c>
     </row>
-    <row r="298" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>0.52345799999999998</v>
       </c>
@@ -51918,7 +51918,7 @@
         <v>33.732523562704621</v>
       </c>
     </row>
-    <row r="299" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>0.52479900000000002</v>
       </c>
@@ -52091,7 +52091,7 @@
         <v>33.65011833207685</v>
       </c>
     </row>
-    <row r="300" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>0.52546899999999996</v>
       </c>
@@ -52264,7 +52264,7 @@
         <v>33.609066803901236</v>
       </c>
     </row>
-    <row r="301" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>0.52613900000000002</v>
       </c>
@@ -52437,7 +52437,7 @@
         <v>33.568095147004662</v>
       </c>
     </row>
-    <row r="302" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>0.52747999999999995</v>
       </c>
@@ -52610,7 +52610,7 @@
         <v>33.486329608345905</v>
       </c>
     </row>
-    <row r="303" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>0.52815000000000001</v>
       </c>
@@ -52783,7 +52783,7 @@
         <v>33.445596210560922</v>
       </c>
     </row>
-    <row r="304" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>0.53016099999999999</v>
       </c>
@@ -52956,7 +52956,7 @@
         <v>33.32380802032668</v>
       </c>
     </row>
-    <row r="305" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>0.53686299999999998</v>
       </c>
@@ -53129,7 +53129,7 @@
         <v>32.922976476678457</v>
       </c>
     </row>
-    <row r="306" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>0.53753399999999996</v>
       </c>
@@ -53302,7 +53302,7 @@
         <v>32.883267134479141</v>
       </c>
     </row>
-    <row r="307" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>0.53887399999999996</v>
       </c>
@@ -53475,7 +53475,7 @@
         <v>32.804193475425166</v>
       </c>
     </row>
-    <row r="308" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>0.54021399999999997</v>
       </c>
@@ -53648,7 +53648,7 @@
         <v>32.725420371093328</v>
       </c>
     </row>
-    <row r="309" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>0.54088499999999995</v>
       </c>
@@ -53821,7 +53821,7 @@
         <v>32.686087398884446</v>
       </c>
     </row>
-    <row r="310" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>0.54155500000000001</v>
       </c>
@@ -53994,7 +53994,7 @@
         <v>32.646887562707853</v>
       </c>
     </row>
-    <row r="311" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>0.54289500000000002</v>
       </c>
@@ -54167,7 +54167,7 @@
         <v>32.568710382857013</v>
       </c>
     </row>
-    <row r="312" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>0.544906</v>
       </c>
@@ -54340,7 +54340,7 @@
         <v>32.451939616967771</v>
       </c>
     </row>
-    <row r="313" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>0.54557599999999995</v>
       </c>
@@ -54513,7 +54513,7 @@
         <v>32.413181998990403</v>
       </c>
     </row>
-    <row r="314" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>0.54624700000000004</v>
       </c>
@@ -54686,7 +54686,7 @@
         <v>32.374439613019426</v>
       </c>
     </row>
-    <row r="315" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>0.54691699999999999</v>
       </c>
@@ -54859,7 +54859,7 @@
         <v>32.335827718152679</v>
       </c>
     </row>
-    <row r="316" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>0.54758700000000005</v>
       </c>
@@ -55032,7 +55032,7 @@
         <v>32.297288305445505</v>
       </c>
     </row>
-    <row r="317" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>0.54825699999999999</v>
       </c>
@@ -55205,7 +55205,7 @@
         <v>32.258821159477066</v>
       </c>
     </row>
-    <row r="318" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>0.55227899999999996</v>
       </c>
@@ -55378,7 +55378,7 @@
         <v>32.029410491461917</v>
       </c>
     </row>
-    <row r="319" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>0.55294900000000002</v>
       </c>
@@ -55551,7 +55551,7 @@
         <v>31.991443465080899</v>
       </c>
     </row>
-    <row r="320" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>0.55361899999999997</v>
       </c>
@@ -55724,7 +55724,7 @@
         <v>31.953547012695786</v>
       </c>
     </row>
-    <row r="321" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>0.55630000000000002</v>
       </c>
@@ -55897,7 +55897,7 @@
         <v>31.80260671059316</v>
       </c>
     </row>
-    <row r="322" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>0.55764100000000005</v>
       </c>
@@ -56070,7 +56070,7 @@
         <v>31.727527011947679</v>
       </c>
     </row>
-    <row r="323" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>0.55898099999999995</v>
       </c>
@@ -56243,7 +56243,7 @@
         <v>31.652779954077985</v>
       </c>
     </row>
-    <row r="324" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>0.55965100000000001</v>
       </c>
@@ -56416,7 +56416,7 @@
         <v>31.615509626918652</v>
       </c>
     </row>
-    <row r="325" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>0.56166199999999999</v>
       </c>
@@ -56589,7 +56589,7 @@
         <v>31.504053781035637</v>
       </c>
     </row>
-    <row r="326" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>0.56233200000000005</v>
       </c>
@@ -56762,7 +56762,7 @@
         <v>31.467056496951557</v>
       </c>
     </row>
-    <row r="327" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>0.56501299999999999</v>
       </c>
@@ -56935,7 +56935,7 @@
         <v>31.319688038641509</v>
       </c>
     </row>
-    <row r="328" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>0.56769400000000003</v>
       </c>
@@ -57108,7 +57108,7 @@
         <v>31.173391748236391</v>
       </c>
     </row>
-    <row r="329" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>0.56970500000000002</v>
       </c>
@@ -57281,7 +57281,7 @@
         <v>31.064352211557619</v>
       </c>
     </row>
-    <row r="330" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>0.57104600000000005</v>
       </c>
@@ -57454,7 +57454,7 @@
         <v>30.99196998232545</v>
       </c>
     </row>
-    <row r="331" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>0.57573700000000005</v>
       </c>
@@ -57627,7 +57627,7 @@
         <v>30.740813779761602</v>
       </c>
     </row>
-    <row r="332" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>0.57841799999999999</v>
       </c>
@@ -57800,7 +57800,7 @@
         <v>30.598685006751325</v>
       </c>
     </row>
-    <row r="333" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>0.57908800000000005</v>
       </c>
@@ -57973,7 +57973,7 @@
         <v>30.563324650891012</v>
       </c>
     </row>
-    <row r="334" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>0.57975900000000002</v>
       </c>
@@ -58146,7 +58146,7 @@
         <v>30.527974715849851</v>
       </c>
     </row>
-    <row r="335" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>0.58243999999999996</v>
       </c>
@@ -58319,7 +58319,7 @@
         <v>30.387360643801571</v>
       </c>
     </row>
-    <row r="336" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>0.58780200000000005</v>
       </c>
@@ -58492,7 +58492,7 @@
         <v>30.109107954626985</v>
       </c>
     </row>
-    <row r="337" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>0.588472</v>
       </c>
@@ -58665,7 +58665,7 @@
         <v>30.074614805488324</v>
       </c>
     </row>
-    <row r="338" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>0.58914200000000005</v>
       </c>
@@ -58838,7 +58838,7 @@
         <v>30.040182282111488</v>
       </c>
     </row>
-    <row r="339" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>0.589812</v>
       </c>
@@ -59011,7 +59011,7 @@
         <v>30.005810215911168</v>
       </c>
     </row>
-    <row r="340" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>0.59115300000000004</v>
       </c>
@@ -59184,7 +59184,7 @@
         <v>29.937195706887714</v>
       </c>
     </row>
-    <row r="341" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>0.59182299999999999</v>
       </c>
@@ -59357,7 +59357,7 @@
         <v>29.903004096479485</v>
       </c>
     </row>
-    <row r="342" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>0.59249300000000005</v>
       </c>
@@ -59530,7 +59530,7 @@
         <v>29.868872275056937</v>
       </c>
     </row>
-    <row r="343" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>0.59852499999999997</v>
       </c>
@@ -59703,7 +59703,7 @@
         <v>29.564249086527269</v>
       </c>
     </row>
-    <row r="344" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>0.59919599999999995</v>
       </c>
@@ -59876,7 +59876,7 @@
         <v>29.530656313415911</v>
       </c>
     </row>
-    <row r="345" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>0.59986600000000001</v>
       </c>
@@ -60049,7 +60049,7 @@
         <v>29.497171650296082</v>
       </c>
     </row>
-    <row r="346" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>0.603217</v>
       </c>
@@ -60222,7 +60222,7 @@
         <v>29.330563340494457</v>
       </c>
     </row>
-    <row r="347" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>0.60522799999999999</v>
       </c>
@@ -60395,7 +60395,7 @@
         <v>29.231265032985647</v>
       </c>
     </row>
-    <row r="348" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>0.606568</v>
       </c>
@@ -60568,7 +60568,7 @@
         <v>29.165382400575858</v>
       </c>
     </row>
-    <row r="349" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>0.60723899999999997</v>
       </c>
@@ -60741,7 +60741,7 @@
         <v>29.132476596928186</v>
       </c>
     </row>
-    <row r="350" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>0.60790900000000003</v>
       </c>
@@ -60914,7 +60914,7 @@
         <v>29.099676012140094</v>
       </c>
     </row>
-    <row r="351" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>0.60992000000000002</v>
       </c>
@@ -61087,7 +61087,7 @@
         <v>29.00156090070417</v>
       </c>
     </row>
-    <row r="352" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>0.61394099999999996</v>
       </c>
@@ -61260,7 +61260,7 @@
         <v>28.806875723028291</v>
       </c>
     </row>
-    <row r="353" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>0.61461100000000002</v>
       </c>
@@ -61433,7 +61433,7 @@
         <v>28.774628418975198</v>
       </c>
     </row>
-    <row r="354" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>0.61595200000000006</v>
       </c>
@@ -61606,7 +61606,7 @@
         <v>28.710249232800088</v>
       </c>
     </row>
-    <row r="355" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>0.61796200000000001</v>
       </c>
@@ -61779,7 +61779,7 @@
         <v>28.614158782389794</v>
       </c>
     </row>
-    <row r="356" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>0.61863299999999999</v>
       </c>
@@ -61952,7 +61952,7 @@
         <v>28.582188768743819</v>
       </c>
     </row>
-    <row r="357" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>0.619973</v>
       </c>
@@ -62125,7 +62125,7 @@
         <v>28.518504865417981</v>
       </c>
     </row>
-    <row r="358" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>0.62131400000000003</v>
       </c>
@@ -62298,7 +62298,7 @@
         <v>28.454987065585826</v>
       </c>
     </row>
-    <row r="359" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>0.62332399999999999</v>
       </c>
@@ -62471,7 +62471,7 @@
         <v>28.36017917025638</v>
       </c>
     </row>
-    <row r="360" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>0.62466500000000003</v>
       </c>
@@ -62644,7 +62644,7 @@
         <v>28.297190471951609</v>
       </c>
     </row>
-    <row r="361" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>0.62533499999999997</v>
       </c>
@@ -62817,7 +62817,7 @@
         <v>28.265798268216514</v>
       </c>
     </row>
-    <row r="362" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>0.62600500000000003</v>
       </c>
@@ -62990,7 +62990,7 @@
         <v>28.234458294095425</v>
       </c>
     </row>
-    <row r="363" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>0.62667600000000001</v>
       </c>
@@ -63163,7 +63163,7 @@
         <v>28.203123752714923</v>
       </c>
     </row>
-    <row r="364" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>0.62801600000000002</v>
       </c>
@@ -63336,7 +63336,7 @@
         <v>28.140703873041005</v>
       </c>
     </row>
-    <row r="365" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>0.63069699999999995</v>
       </c>
@@ -63509,7 +63509,7 @@
         <v>28.016437028861112</v>
       </c>
     </row>
-    <row r="366" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>0.63136700000000001</v>
       </c>
@@ -63682,7 +63682,7 @@
         <v>27.985510138821105</v>
       </c>
     </row>
-    <row r="367" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>0.63203799999999999</v>
       </c>
@@ -63855,7 +63855,7 @@
         <v>27.954588213642445</v>
       </c>
     </row>
-    <row r="368" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>0.63270800000000005</v>
       </c>
@@ -64028,7 +64028,7 @@
         <v>27.923763286825931</v>
       </c>
     </row>
-    <row r="369" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>0.63538899999999998</v>
       </c>
@@ -64201,7 +64201,7 @@
         <v>27.800924037454465</v>
       </c>
     </row>
-    <row r="370" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>0.63873999999999997</v>
       </c>
@@ -64374,7 +64374,7 @@
         <v>27.648516102940391</v>
       </c>
     </row>
-    <row r="371" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>0.63941000000000003</v>
       </c>
@@ -64547,7 +64547,7 @@
         <v>27.618192880889787</v>
       </c>
     </row>
-    <row r="372" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>0.64209099999999997</v>
       </c>
@@ -64720,7 +64720,7 @@
         <v>27.497348234843507</v>
       </c>
     </row>
-    <row r="373" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>0.643432</v>
       </c>
@@ -64893,7 +64893,7 @@
         <v>27.437197868008276</v>
       </c>
     </row>
-    <row r="374" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>0.64477200000000001</v>
       </c>
@@ -65066,7 +65066,7 @@
         <v>27.37728717271505</v>
       </c>
     </row>
-    <row r="375" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>0.64611300000000005</v>
       </c>
@@ -65239,7 +65239,7 @@
         <v>27.317525731876742</v>
       </c>
     </row>
-    <row r="376" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>0.64745299999999995</v>
       </c>
@@ -65412,7 +65412,7 @@
         <v>27.258001685001929</v>
       </c>
     </row>
-    <row r="377" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>0.64879399999999998</v>
       </c>
@@ -65585,7 +65585,7 @@
         <v>27.198625206021262</v>
       </c>
     </row>
-    <row r="378" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>0.65080400000000005</v>
       </c>
@@ -65758,7 +65758,7 @@
         <v>27.109984454264684</v>
       </c>
     </row>
-    <row r="379" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>0.65214499999999997</v>
       </c>
@@ -65931,7 +65931,7 @@
         <v>27.051083651805058</v>
       </c>
     </row>
-    <row r="380" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>0.65281500000000003</v>
       </c>
@@ -66104,7 +66104,7 @@
         <v>27.02172595229446</v>
       </c>
     </row>
-    <row r="381" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>0.65348499999999998</v>
       </c>
@@ -66277,7 +66277,7 @@
         <v>26.992415230287705</v>
       </c>
     </row>
-    <row r="382" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>0.65683599999999998</v>
       </c>
@@ -66450,7 +66450,7 @@
         <v>26.84651877368259</v>
       </c>
     </row>
-    <row r="383" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>0.65951700000000002</v>
       </c>
@@ -66623,7 +66623,7 @@
         <v>26.730627069882019</v>
       </c>
     </row>
-    <row r="384" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>0.66085799999999995</v>
       </c>
@@ -66796,7 +66796,7 @@
         <v>26.672935252752787</v>
       </c>
     </row>
-    <row r="385" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>0.661528</v>
       </c>
@@ -66969,7 +66969,7 @@
         <v>26.644179313164578</v>
       </c>
     </row>
-    <row r="386" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>0.66219799999999995</v>
       </c>
@@ -67142,7 +67142,7 @@
         <v>26.615468837523814</v>
       </c>
     </row>
-    <row r="387" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>0.66286900000000004</v>
       </c>
@@ -67315,7 +67315,7 @@
         <v>26.586760962296125</v>
       </c>
     </row>
-    <row r="388" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>0.66420900000000005</v>
       </c>
@@ -67488,7 +67488,7 @@
         <v>26.529566444968985</v>
       </c>
     </row>
-    <row r="389" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>0.66554999999999997</v>
       </c>
@@ -67661,7 +67661,7 @@
         <v>26.472509493705864</v>
       </c>
     </row>
-    <row r="390" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>0.67091199999999995</v>
       </c>
@@ -67834,7 +67834,7 @@
         <v>26.246150903869797</v>
       </c>
     </row>
-    <row r="391" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>0.67292200000000002</v>
       </c>
@@ -68007,7 +68007,7 @@
         <v>26.16202577752167</v>
       </c>
     </row>
-    <row r="392" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>0.67560299999999995</v>
       </c>
@@ -68180,7 +68180,7 @@
         <v>26.050427123431973</v>
       </c>
     </row>
-    <row r="393" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>0.67694399999999999</v>
       </c>
@@ -68353,7 +68353,7 @@
         <v>25.994866673909264</v>
       </c>
     </row>
-    <row r="394" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>0.67761400000000005</v>
       </c>
@@ -68526,7 +68526,7 @@
         <v>25.967171668515519</v>
       </c>
     </row>
-    <row r="395" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>0.678284</v>
       </c>
@@ -68699,7 +68699,7 @@
         <v>25.939519503691038</v>
       </c>
     </row>
-    <row r="396" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>0.67895399999999995</v>
       </c>
@@ -68872,7 +68872,7 @@
         <v>25.911910074722208</v>
       </c>
     </row>
-    <row r="397" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>0.67962500000000003</v>
       </c>
@@ -69045,7 +69045,7 @@
         <v>25.884302164582387</v>
       </c>
     </row>
-    <row r="398" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>0.68029499999999998</v>
       </c>
@@ -69218,7 +69218,7 @@
         <v>25.856777957981606</v>
       </c>
     </row>
-    <row r="399" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>0.68632700000000002</v>
       </c>
@@ -69391,7 +69391,7 @@
         <v>25.610875866031961</v>
       </c>
     </row>
-    <row r="400" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>0.68900799999999995</v>
       </c>
@@ -69564,7 +69564,7 @@
         <v>25.502665842692664</v>
       </c>
     </row>
-    <row r="401" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>0.691689</v>
       </c>
@@ -69737,7 +69737,7 @@
         <v>25.395114021527263</v>
       </c>
     </row>
-    <row r="402" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>0.69302900000000001</v>
       </c>
@@ -69910,7 +69910,7 @@
         <v>25.341602898628132</v>
       </c>
     </row>
-    <row r="403" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>0.69437000000000004</v>
       </c>
@@ -70083,7 +70083,7 @@
         <v>25.288214093965031</v>
       </c>
     </row>
-    <row r="404" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>0.69503999999999999</v>
       </c>
@@ -70256,7 +70256,7 @@
         <v>25.261600162108273</v>
       </c>
     </row>
-    <row r="405" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>0.69571000000000005</v>
       </c>
@@ -70429,7 +70429,7 @@
         <v>25.235026457610793</v>
       </c>
     </row>
-    <row r="406" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>0.69973200000000002</v>
       </c>
@@ -70602,7 +70602,7 @@
         <v>25.07634509708825</v>
       </c>
     </row>
-    <row r="407" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>0.70040199999999997</v>
       </c>
@@ -70775,7 +70775,7 @@
         <v>25.050050429922258</v>
       </c>
     </row>
-    <row r="408" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>0.70107200000000003</v>
       </c>
@@ -70948,7 +70948,7 @@
         <v>25.023795230092325</v>
       </c>
     </row>
-    <row r="409" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>0.70375299999999996</v>
       </c>
@@ -71121,7 +71121,7 @@
         <v>24.919128313625052</v>
       </c>
     </row>
-    <row r="410" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>0.705094</v>
       </c>
@@ -71294,7 +71294,7 @@
         <v>24.867010011363448</v>
       </c>
     </row>
-    <row r="411" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>0.71246600000000004</v>
       </c>
@@ -71467,7 +71467,7 @@
         <v>24.583253107913727</v>
       </c>
     </row>
-    <row r="412" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>0.71313700000000002</v>
       </c>
@@ -71640,7 +71640,7 @@
         <v>24.557654711833479</v>
       </c>
     </row>
-    <row r="413" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>0.71983900000000001</v>
       </c>
@@ -71813,7 +71813,7 @@
         <v>24.304038639986643</v>
       </c>
     </row>
-    <row r="414" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>0.72453100000000004</v>
       </c>
@@ -71986,7 +71986,7 @@
         <v>24.128685440409733</v>
       </c>
     </row>
-    <row r="415" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>0.72788200000000003</v>
       </c>
@@ -72159,7 +72159,7 @@
         <v>24.004540007598393</v>
       </c>
     </row>
-    <row r="416" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>0.72855199999999998</v>
       </c>
@@ -72332,7 +72332,7 @@
         <v>23.979826285017715</v>
       </c>
     </row>
-    <row r="417" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>0.73123300000000002</v>
       </c>
@@ -72505,7 +72505,7 @@
         <v>23.881291768310476</v>
       </c>
     </row>
-    <row r="418" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>0.73190299999999997</v>
       </c>
@@ -72678,7 +72678,7 @@
         <v>23.856756201570505</v>
       </c>
     </row>
-    <row r="419" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>0.73324400000000001</v>
       </c>
@@ -72851,7 +72851,7 @@
         <v>23.807754630262728</v>
       </c>
     </row>
-    <row r="420" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>0.74463800000000002</v>
       </c>
@@ -73024,7 +73024,7 @@
         <v>23.397033388292805</v>
       </c>
     </row>
-    <row r="421" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>0.74664900000000001</v>
       </c>
@@ -73197,7 +73197,7 @@
         <v>23.325570900087591</v>
       </c>
     </row>
-    <row r="422" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>0.74865999999999999</v>
       </c>
@@ -73370,7 +73370,7 @@
         <v>23.254411661857176</v>
       </c>
     </row>
-    <row r="423" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>0.75402100000000005</v>
       </c>
@@ -73543,7 +73543,7 @@
         <v>23.066179071344514</v>
       </c>
     </row>
-    <row r="424" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>0.75871299999999997</v>
       </c>
@@ -73716,7 +73716,7 @@
         <v>22.903163016353872</v>
       </c>
     </row>
-    <row r="425" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>0.75938300000000003</v>
       </c>
@@ -73889,7 +73889,7 @@
         <v>22.880014919581875</v>
       </c>
     </row>
-    <row r="426" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>0.76407499999999995</v>
       </c>
@@ -74062,7 +74062,7 @@
         <v>22.718809437500035</v>
       </c>
     </row>
-    <row r="427" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>0.76474500000000001</v>
       </c>
@@ -74235,7 +74235,7 @@
         <v>22.695917612842862</v>
       </c>
     </row>
-    <row r="428" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>0.76608600000000004</v>
       </c>
@@ -74408,7 +74408,7 @@
         <v>22.650194965985719</v>
       </c>
     </row>
-    <row r="429" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>0.76943700000000004</v>
       </c>
@@ -74581,7 +74581,7 @@
         <v>22.536491135242223</v>
       </c>
     </row>
-    <row r="430" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>0.77345799999999998</v>
       </c>
@@ -74754,7 +74754,7 @@
         <v>22.401083576697623</v>
       </c>
     </row>
-    <row r="431" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>0.77412899999999996</v>
       </c>
@@ -74927,7 +74927,7 @@
         <v>22.378596061281407</v>
       </c>
     </row>
-    <row r="432" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>0.77479900000000002</v>
       </c>
@@ -75100,7 +75100,7 @@
         <v>22.35617283676158</v>
       </c>
     </row>
-    <row r="433" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>0.77613900000000002</v>
       </c>
@@ -75273,7 +75273,7 @@
         <v>22.311418385386524</v>
       </c>
     </row>
-    <row r="434" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>0.77815000000000001</v>
       </c>
@@ -75446,7 +75446,7 @@
         <v>22.244482494254754</v>
       </c>
     </row>
-    <row r="435" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>0.77881999999999996</v>
       </c>
@@ -75619,7 +75619,7 @@
         <v>22.222242452421789</v>
       </c>
     </row>
-    <row r="436" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>0.78016099999999999</v>
       </c>
@@ -75792,7 +75792,7 @@
         <v>22.177820101588075</v>
       </c>
     </row>
-    <row r="437" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>0.781501</v>
       </c>
@@ -75965,7 +75965,7 @@
         <v>22.133551573956332</v>
       </c>
     </row>
-    <row r="438" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>0.78217199999999998</v>
       </c>
@@ -76138,7 +76138,7 @@
         <v>22.111429446297088</v>
       </c>
     </row>
-    <row r="439" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>0.79155500000000001</v>
       </c>
@@ -76311,7 +76311,7 @@
         <v>21.805202362659664</v>
       </c>
     </row>
-    <row r="440" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>0.79356599999999999</v>
       </c>
@@ -76484,7 +76484,7 @@
         <v>21.74031880960041</v>
       </c>
     </row>
-    <row r="441" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>0.80294900000000002</v>
       </c>
@@ -76657,7 +76657,7 @@
         <v>21.4409979945655</v>
       </c>
     </row>
-    <row r="442" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>0.80496000000000001</v>
       </c>
@@ -76830,7 +76830,7 @@
         <v>21.377568210639815</v>
       </c>
     </row>
-    <row r="443" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>0.80898099999999995</v>
       </c>
@@ -77003,7 +77003,7 @@
         <v>21.25149203277897</v>
       </c>
     </row>
-    <row r="444" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>0.81166199999999999</v>
       </c>
@@ -77176,7 +77176,7 @@
         <v>21.167982766137555</v>
       </c>
     </row>
-    <row r="445" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>0.81635400000000002</v>
       </c>
@@ -77349,7 +77349,7 @@
         <v>21.022884052096934</v>
       </c>
     </row>
-    <row r="446" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>0.81903499999999996</v>
       </c>
@@ -77522,7 +77522,7 @@
         <v>20.940568880805706</v>
       </c>
     </row>
-    <row r="447" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>0.82372699999999999</v>
       </c>
@@ -77695,7 +77695,7 @@
         <v>20.797536381874572</v>
       </c>
     </row>
-    <row r="448" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>0.82439700000000005</v>
       </c>
@@ -77868,7 +77868,7 @@
         <v>20.777217629616445</v>
       </c>
     </row>
-    <row r="449" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>0.82841799999999999</v>
       </c>
@@ -78041,7 +78041,7 @@
         <v>20.655824764597583</v>
       </c>
     </row>
-    <row r="450" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>0.82908800000000005</v>
       </c>
@@ -78214,7 +78214,7 @@
         <v>20.635688795032571</v>
       </c>
     </row>
-    <row r="451" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>0.82975900000000002</v>
       </c>
@@ -78387,7 +78387,7 @@
         <v>20.615548724055486</v>
       </c>
     </row>
-    <row r="452" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>0.83109900000000003</v>
       </c>
@@ -78560,7 +78560,7 @@
         <v>20.575406123407006</v>
       </c>
     </row>
-    <row r="453" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>0.83176899999999998</v>
       </c>
@@ -78733,7 +78733,7 @@
         <v>20.55537345478232</v>
       </c>
     </row>
-    <row r="454" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>0.83243999999999996</v>
       </c>
@@ -78906,7 +78906,7 @@
         <v>20.53533662911105</v>
       </c>
     </row>
-    <row r="455" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>0.83311000000000002</v>
       </c>
@@ -79079,7 +79079,7 @@
         <v>20.515355316656034</v>
       </c>
     </row>
-    <row r="456" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>0.83377999999999997</v>
       </c>
@@ -79252,7 +79252,7 @@
         <v>20.495399585310523</v>
       </c>
     </row>
-    <row r="457" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>0.83579099999999995</v>
       </c>
@@ -79425,7 +79425,7 @@
         <v>20.435655710354823</v>
       </c>
     </row>
-    <row r="458" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>0.83646100000000001</v>
       </c>
@@ -79598,7 +79598,7 @@
         <v>20.415801826034084</v>
       </c>
     </row>
-    <row r="459" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>0.83713099999999996</v>
       </c>
@@ -79771,7 +79771,7 @@
         <v>20.395973265832772</v>
       </c>
     </row>
-    <row r="460" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>0.839812</v>
       </c>
@@ -79944,7 +79944,7 @@
         <v>20.316881823476784</v>
       </c>
     </row>
-    <row r="461" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>0.84115300000000004</v>
       </c>
@@ -80117,7 +80117,7 @@
         <v>20.277472165337031</v>
       </c>
     </row>
-    <row r="462" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>0.84249300000000005</v>
       </c>
@@ -80290,7 +80290,7 @@
         <v>20.238191813738609</v>
       </c>
     </row>
-    <row r="463" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>0.84316400000000002</v>
       </c>
@@ -80463,7 +80463,7 @@
         <v>20.218559728987536</v>
       </c>
     </row>
-    <row r="464" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>0.84450400000000003</v>
       </c>
@@ -80636,7 +80636,7 @@
         <v>20.179428524625024</v>
       </c>
     </row>
-    <row r="465" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>0.84517399999999998</v>
       </c>
@@ -80809,7 +80809,7 @@
         <v>20.159900029499283</v>
       </c>
     </row>
-    <row r="466" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>0.84584499999999996</v>
       </c>
@@ -80982,7 +80982,7 @@
         <v>20.140367114856744</v>
       </c>
     </row>
-    <row r="467" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>0.84651500000000002</v>
       </c>
@@ -81155,7 +81155,7 @@
         <v>20.120887951777469</v>
       </c>
     </row>
-    <row r="468" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>0.84785500000000003</v>
       </c>
@@ -81328,7 +81328,7 @@
         <v>20.082003298629161</v>
       </c>
     </row>
-    <row r="469" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>0.84852499999999997</v>
       </c>
@@ -81501,7 +81501,7 @@
         <v>20.062597710887722</v>
       </c>
     </row>
-    <row r="470" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>0.84919599999999995</v>
       </c>
@@ -81674,7 +81674,7 @@
         <v>20.04318764193598</v>
       </c>
     </row>
-    <row r="471" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>0.84986600000000001</v>
       </c>
@@ -81847,7 +81847,7 @@
         <v>20.023830897363915</v>
       </c>
     </row>
-    <row r="472" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>0.85053599999999996</v>
       </c>
@@ -82020,7 +82020,7 @@
         <v>20.004498483504022</v>
       </c>
     </row>
-    <row r="473" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>0.85120600000000002</v>
       </c>
@@ -82193,7 +82193,7 @@
         <v>19.985190352115019</v>
       </c>
     </row>
-    <row r="474" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>0.85254700000000005</v>
       </c>
@@ -82366,7 +82366,7 @@
         <v>19.946618016654462</v>
       </c>
     </row>
-    <row r="475" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>0.853217</v>
       </c>
@@ -82539,7 +82539,7 @@
         <v>19.927382480529232</v>
       </c>
     </row>
-    <row r="476" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>0.85455800000000004</v>
       </c>
@@ -82712,7 +82712,7 @@
         <v>19.88895501293721</v>
       </c>
     </row>
-    <row r="477" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>0.85522799999999999</v>
       </c>
@@ -82885,7 +82885,7 @@
         <v>19.869791642164053</v>
       </c>
     </row>
-    <row r="478" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>0.85790900000000003</v>
       </c>
@@ -83058,7 +83058,7 @@
         <v>19.793348728731736</v>
       </c>
     </row>
-    <row r="479" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>0.85857899999999998</v>
       </c>
@@ -83231,7 +83231,7 @@
         <v>19.774304664000596</v>
       </c>
     </row>
-    <row r="480" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>0.85924900000000004</v>
       </c>
@@ -83404,7 +83404,7 @@
         <v>19.755284312718786</v>
       </c>
     </row>
-    <row r="481" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>0.85992000000000002</v>
       </c>
@@ -83577,7 +83577,7 @@
         <v>19.736259292717385</v>
       </c>
     </row>
-    <row r="482" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>0.86260099999999995</v>
       </c>
@@ -83750,7 +83750,7 @@
         <v>19.660480242136025</v>
       </c>
     </row>
-    <row r="483" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>0.86394099999999996</v>
       </c>
@@ -83923,7 +83923,7 @@
         <v>19.622745683292123</v>
       </c>
     </row>
-    <row r="484" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>0.86796200000000001</v>
       </c>
@@ -84096,7 +84096,7 @@
         <v>19.510072896245333</v>
       </c>
     </row>
-    <row r="485" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>0.87064299999999994</v>
       </c>
@@ -84269,7 +84269,7 @@
         <v>19.435410728308085</v>
       </c>
     </row>
-    <row r="486" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>0.87265400000000004</v>
       </c>
@@ -84442,7 +84442,7 @@
         <v>19.379647902788584</v>
       </c>
     </row>
-    <row r="487" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>0.87332399999999999</v>
       </c>
@@ -84615,7 +84615,7 @@
         <v>19.361115134809992</v>
       </c>
     </row>
-    <row r="488" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>0.87533499999999997</v>
       </c>
@@ -84788,7 +84788,7 @@
         <v>19.305625413518179</v>
       </c>
     </row>
-    <row r="489" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>0.87734599999999996</v>
       </c>
@@ -84961,7 +84961,7 @@
         <v>19.250339163005648</v>
       </c>
     </row>
-    <row r="490" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>0.87935700000000006</v>
       </c>
@@ -85134,7 +85134,7 @@
         <v>19.195255208295173</v>
       </c>
     </row>
-    <row r="491" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>0.88672899999999999</v>
       </c>
@@ -85307,7 +85307,7 @@
         <v>18.995037684809688</v>
       </c>
     </row>
-    <row r="492" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>0.88873999999999997</v>
       </c>
@@ -85480,7 +85480,7 @@
         <v>18.940882348546701</v>
       </c>
     </row>
-    <row r="493" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>0.89142100000000002</v>
       </c>
@@ -85653,7 +85653,7 @@
         <v>18.868988552543598</v>
       </c>
     </row>
-    <row r="494" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>0.89477200000000001</v>
       </c>
@@ -85826,7 +85826,7 @@
         <v>18.779613345725629</v>
       </c>
     </row>
-    <row r="495" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>0.89879399999999998</v>
       </c>
@@ -85999,7 +85999,7 @@
         <v>18.673047063962713</v>
       </c>
     </row>
-    <row r="496" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>0.90549599999999997</v>
       </c>
@@ -86172,7 +86172,7 @@
         <v>18.497158930583069</v>
       </c>
     </row>
-    <row r="497" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>0.90616600000000003</v>
       </c>
@@ -86345,7 +86345,7 @@
         <v>18.47969007180545</v>
       </c>
     </row>
-    <row r="498" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>0.90884699999999996</v>
       </c>
@@ -86518,7 +86518,7 @@
         <v>18.409995256161118</v>
       </c>
     </row>
-    <row r="499" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>0.91420900000000005</v>
       </c>
@@ -86691,7 +86691,7 @@
         <v>18.271589840363134</v>
       </c>
     </row>
-    <row r="500" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>0.92091199999999995</v>
       </c>
@@ -86864,7 +86864,7 @@
         <v>18.10039081843086</v>
       </c>
     </row>
-    <row r="501" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>0.92225199999999996</v>
       </c>
@@ -87037,7 +87037,7 @@
         <v>18.066405994955559</v>
       </c>
     </row>
-    <row r="502" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>0.92426299999999995</v>
       </c>
@@ -87210,7 +87210,7 @@
         <v>18.015551869939792</v>
       </c>
     </row>
-    <row r="503" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>0.92560299999999995</v>
       </c>
@@ -87383,7 +87383,7 @@
         <v>17.981764487265977</v>
       </c>
     </row>
-    <row r="504" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>0.92694399999999999</v>
       </c>
@@ -87556,7 +87556,7 @@
         <v>17.94803042458657</v>
       </c>
     </row>
-    <row r="505" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>0.928284</v>
       </c>
@@ -87729,7 +87729,7 @@
         <v>17.914399706582458</v>
       </c>
     </row>
-    <row r="506" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>0.92962500000000003</v>
       </c>
@@ -87902,7 +87902,7 @@
         <v>17.880821852183828</v>
       </c>
     </row>
-    <row r="507" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>0.93498700000000001</v>
       </c>
@@ -88075,7 +88075,7 @@
         <v>17.74733422527639</v>
       </c>
     </row>
-    <row r="508" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>0.93565699999999996</v>
       </c>
@@ -88248,7 +88248,7 @@
         <v>17.730740916274804</v>
       </c>
     </row>
-    <row r="509" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>0.93632700000000002</v>
       </c>
@@ -88421,7 +88421,7 @@
         <v>17.714166689344616</v>
       </c>
     </row>
-    <row r="510" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>0.93900799999999995</v>
       </c>
@@ -88594,7 +88594,7 @@
         <v>17.648035301674263</v>
       </c>
     </row>
-    <row r="511" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>0.94101900000000005</v>
       </c>
@@ -88767,7 +88767,7 @@
         <v>17.598629452575025</v>
       </c>
     </row>
-    <row r="512" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>0.94235899999999995</v>
       </c>
@@ -88940,7 +88940,7 @@
         <v>17.565802721444136</v>
       </c>
     </row>
-    <row r="513" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>0.94369999999999998</v>
       </c>
@@ -89113,7 +89113,7 @@
         <v>17.533026536202179</v>
       </c>
     </row>
-    <row r="514" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>0.94437000000000004</v>
       </c>
@@ -89286,7 +89286,7 @@
         <v>17.516678703804814</v>
       </c>
     </row>
-    <row r="515" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>0.94906199999999996</v>
       </c>
@@ -89459,7 +89459,7 @@
         <v>17.402715509764192</v>
       </c>
     </row>
-    <row r="516" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>0.94973200000000002</v>
       </c>
@@ -89632,7 +89632,7 @@
         <v>17.386515909610871</v>
       </c>
     </row>
-    <row r="517" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>0.95040199999999997</v>
       </c>
@@ -89805,7 +89805,7 @@
         <v>17.370334682506439</v>
       </c>
     </row>
-    <row r="518" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>0.95107200000000003</v>
       </c>
@@ -89978,7 +89978,7 @@
         <v>17.354171795605232</v>
       </c>
     </row>
-    <row r="519" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>0.95174300000000001</v>
       </c>
@@ -90151,7 +90151,7 @@
         <v>17.338003133421019</v>
       </c>
     </row>
-    <row r="520" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>0.95308300000000001</v>
       </c>
@@ -90324,7 +90324,7 @@
         <v>17.30576882060096</v>
       </c>
     </row>
-    <row r="521" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>0.95375299999999996</v>
       </c>
@@ -90497,7 +90497,7 @@
         <v>17.289678994813045</v>
       </c>
     </row>
-    <row r="522" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>0.95442400000000005</v>
       </c>
@@ -90670,7 +90670,7 @@
         <v>17.273583372185307</v>
       </c>
     </row>
-    <row r="523" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>0.96045599999999998</v>
       </c>
@@ -90843,7 +90843,7 @@
         <v>17.129703967781424</v>
       </c>
     </row>
-    <row r="524" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>0.96246600000000004</v>
       </c>
@@ -91016,7 +91016,7 @@
         <v>17.082082717622164</v>
       </c>
     </row>
-    <row r="525" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>0.96380699999999997</v>
       </c>
@@ -91189,7 +91189,7 @@
         <v>17.050400482109012</v>
       </c>
     </row>
-    <row r="526" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>0.96447700000000003</v>
       </c>
@@ -91362,7 +91362,7 @@
         <v>17.034597755545043</v>
       </c>
     </row>
-    <row r="527" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>0.96514699999999998</v>
       </c>
@@ -91535,7 +91535,7 @@
         <v>17.018812697368972</v>
       </c>
     </row>
-    <row r="528" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>0.96648800000000001</v>
       </c>
@@ -91708,7 +91708,7 @@
         <v>16.987271967675227</v>
       </c>
     </row>
-    <row r="529" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>0.96916899999999995</v>
       </c>
@@ -91881,7 +91881,7 @@
         <v>16.924424867245875</v>
       </c>
     </row>
-    <row r="530" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>0.97319</v>
       </c>

--- a/Raw_data_cleaned/Burley/Burley27.xlsx
+++ b/Raw_data_cleaned/Burley/Burley27.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitvaraaravithya/Documents/tobacco_project_review/Raw_data_cleaned/Burley/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A296B212-78C7-9046-9EE9-46047966D1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09FF5E21-F135-4C26-B41C-9FF169377C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="3800" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,16 +355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B9AF02-60A8-FC45-8851-57BAEFFEA3ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE530"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="32" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:BE530"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>6.7000000000000002E-4</v>
       </c>
@@ -710,7 +710,7 @@
         <v>284.711209930042</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1.34E-3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>278.58834397112514</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2.0110000000000002E-3</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>273.34812257880037</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2.6809999999999998E-3</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>268.66569665923566</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3.3509999999999998E-3</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>264.37980432681945</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4.0210000000000003E-3</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>260.4030678488927</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6.032E-3</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>249.83479499526703</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6.7019999999999996E-3</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>246.66795968248135</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1.0723999999999999E-2</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>230.22360792609012</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1.1394E-2</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>227.819864870949</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1.2064E-2</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>225.49338842588435</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1.2735E-2</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>223.23574804952455</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1.3405E-2</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>221.04910283059218</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1.4075000000000001E-2</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>218.92594049463551</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1.6756E-2</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>210.99637509604401</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1.7426000000000001E-2</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>209.14158276748952</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2.4129000000000001E-2</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>192.79033286573286</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2.6138999999999999E-2</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>188.52830516671892</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2.8819999999999998E-2</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>183.21227593045984</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3.3512E-2</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>174.77630022817033</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3.9544000000000003E-2</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>165.25582237933628</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>4.1555000000000002E-2</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>162.35846775262451</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>4.3566000000000001E-2</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>159.58235519999829</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>4.4235999999999998E-2</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>158.68285487274088</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4.8927999999999999E-2</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>152.71012114862384</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>5.0937999999999997E-2</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>150.31228665343335</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>5.2278999999999999E-2</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>148.76161506846654</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>5.4289999999999998E-2</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>146.50575895512821</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>5.4960000000000002E-2</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>145.77196575951638</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>5.5629999999999999E-2</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>145.04676372737288</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>5.6971000000000001E-2</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>143.62040299063517</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6.0322000000000001E-2</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>140.19515500840873</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>6.0991999999999998E-2</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>139.53294215315819</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6.2331999999999999E-2</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>138.23002907832603</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>6.3003000000000003E-2</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>137.58811553227054</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>6.4342999999999997E-2</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>136.32657166998129</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>6.5013000000000001E-2</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>135.70573776075003</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>6.8364999999999995E-2</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>132.69463299013452</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>6.9034999999999999E-2</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>132.11098854739754</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>7.2386000000000006E-2</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>129.27747673020207</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>7.3055999999999996E-2</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>128.72740342191793</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>7.7077999999999994E-2</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>125.53337233770607</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>7.9088000000000006E-2</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>124.0030133457695</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>8.3110000000000003E-2</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>121.06279229093674</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>8.6460999999999996E-2</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>118.72902936875145</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>8.7802000000000005E-2</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>117.82282010531755</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>8.9812000000000003E-2</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>116.49281500904864</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>9.3163999999999997E-2</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>114.34692311290952</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>9.3834000000000001E-2</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>113.92837734381784</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>9.4504000000000005E-2</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>113.51318146817682</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>9.7184999999999994E-2</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>111.88442699376506</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>9.9196000000000006E-2</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>110.69582691669513</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>0.100536</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>109.91898209403283</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>0.101206</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>109.53499223589131</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>0.103217</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>108.39975515145964</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>0.10388699999999999</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>108.02717818860597</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>0.10589800000000001</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>106.92536071637569</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>0.107239</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>106.2040338697807</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>0.107909</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>105.84756015871682</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>0.109249</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>105.14229571875013</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>0.10992</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>104.79292588688567</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>0.11058999999999999</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>104.44655998622592</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>0.11126</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>104.10264656790443</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>0.113271</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>103.08483832098538</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>0.113941</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>102.75045851976894</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>0.114611</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>102.41839351583636</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>0.115282</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>102.08812659049363</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>0.116622</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>101.43534341267878</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>0.117962</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>100.79141014652211</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0.12131400000000001</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>99.218105777900576</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>0.130027</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>95.361804283913159</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>0.13270799999999999</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>94.237936704287719</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>0.134718</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>93.413415594281886</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>0.13672899999999999</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>92.603466306122883</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.14075099999999999</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>91.026785988239936</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>0.14142099999999999</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>90.76955627158577</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>0.14410200000000001</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>89.755203995373179</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>0.14611299999999999</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>89.009655152430852</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>0.147453</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>88.519952594411492</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>0.14879400000000001</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>88.035433555008353</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>0.151475</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>87.082996176749319</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>0.152145</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>86.848285520076331</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>0.15281500000000001</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>86.614874568613601</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>0.15482599999999999</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>85.92198236029401</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>0.156166</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>85.46657436136536</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>0.156836</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>85.240723651614744</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>0.15750700000000001</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>85.015759638830986</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>0.160188</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>84.128919691760473</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>0.16219800000000001</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>83.476350484030789</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>0.16286900000000001</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>83.260798315688746</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>0.16353899999999999</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>83.04669760941907</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>0.164879</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>82.621846105889432</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>0.16622000000000001</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>82.201086439938621</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>0.16689000000000001</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>81.992492727601828</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>0.168901</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>81.372811416610517</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>0.170241</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>80.965147515804162</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>0.17091200000000001</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>80.762563536347088</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>0.17158200000000001</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>80.561303705113474</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>0.17225199999999999</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>80.361057013040963</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>0.173592</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>79.963570201505092</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>0.17560300000000001</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>79.374444891436156</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>0.17694399999999999</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>78.986442107569331</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>0.18029500000000001</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>78.033371922611295</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>0.18163499999999999</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>77.658700653462063</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>0.182976</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>77.287349013476984</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>0.183646</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>77.103143139191147</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>0.18431600000000001</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>76.919815359387044</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>0.18565699999999999</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>76.555496780075586</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>0.187668</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>76.015581073923272</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>0.18833800000000001</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>75.837385167949051</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>0.18900800000000001</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>75.660021591873971</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>0.191689</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>74.958507078067427</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>0.192359</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>74.785213709178251</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>0.19302900000000001</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>74.612716053726459</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>0.19370000000000001</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>74.440752536699463</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>0.19503999999999999</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>74.099685478625034</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>0.19571</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>73.930313604980299</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>0.19906199999999999</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>73.094353487239204</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>0.19973199999999999</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>72.929502459396744</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>0.200402</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>72.765385612872379</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>0.20174300000000001</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>72.439091234857173</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>0.20308300000000001</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>72.11591552036522</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>0.20375299999999999</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>71.955392780694041</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>0.205094</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>71.636215539949902</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>0.205764</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>71.477789182633884</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>0.20643400000000001</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>71.320051486443163</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>0.20710500000000001</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v>71.162763739680457</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>0.20777499999999999</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>71.006389987343553</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>0.20844499999999999</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>70.850690593407307</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>0.209115</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>70.695660884443797</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>0.209786</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>70.541066331706716</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>0.21112600000000001</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>70.234315861431185</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>0.21313699999999999</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>69.778839785602869</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>0.214477</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>69.478539308689562</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>0.215147</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>69.329335566652574</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>0.21581800000000001</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>69.180535851186221</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>0.21648800000000001</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>69.032579465078399</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0.21782799999999999</v>
       </c>
@@ -24411,7 +24411,7 @@
         <v>68.738513372580798</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>0.218499</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>68.592177810602593</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>0.219169</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>68.446665442238086</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>0.22050900000000001</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>68.157438640183244</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>0.22117999999999999</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>68.013502214020122</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>0.22252</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>67.727821802454386</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>0.223861</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>67.44425520978416</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>0.22520100000000001</v>
       </c>
@@ -25622,7 +25622,7 @@
         <v>67.163195064308866</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>0.227882</v>
       </c>
@@ -25795,7 +25795,7 @@
         <v>66.607633214630937</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>0.22855200000000001</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>66.470182985716306</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>0.22922300000000001</v>
       </c>
@@ -26141,7 +26141,7 @@
         <v>66.333076916461522</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>0.22989299999999999</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>66.196720159592331</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>0.231903</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>65.790882744276146</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>0.23391400000000001</v>
       </c>
@@ -26660,7 +26660,7 @@
         <v>65.389624898040836</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>0.23525499999999999</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>65.124666625765045</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>0.235925</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>64.993059850849718</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>0.236595</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>64.861964242332974</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>0.23860600000000001</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>64.47151970193724</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>0.25469199999999997</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>61.503359324417282</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>0.25670199999999999</v>
       </c>
@@ -27698,7 +27698,7 @@
         <v>61.150713217842288</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>0.26072400000000001</v>
       </c>
@@ -27871,7 +27871,7 @@
         <v>60.456462291246105</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>0.263405</v>
       </c>
@@ -28044,7 +28044,7 @@
         <v>60.001915966492227</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>0.264075</v>
       </c>
@@ -28217,7 +28217,7 @@
         <v>59.889328560884501</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>0.26675599999999999</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>59.442771444404464</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>0.27077699999999999</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>58.784656726437696</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>0.27144800000000002</v>
       </c>
@@ -28736,7 +28736,7 @@
         <v>58.67616646040883</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>0.27211800000000003</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>58.568212366838246</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>0.27412900000000001</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>58.246415555402443</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>0.27748</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>57.717493432214816</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>0.27949099999999999</v>
       </c>
@@ -29428,7 +29428,7 @@
         <v>57.404370454154694</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>0.280831</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>57.197481390177153</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>0.281501</v>
       </c>
@@ -29774,7 +29774,7 @@
         <v>57.094557774674989</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>0.28217199999999998</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>56.991826107869564</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>0.28351199999999999</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>56.787696501878919</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>0.28485300000000002</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>56.584773280334367</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>0.28686299999999998</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>56.283129520224627</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>0.28954400000000002</v>
       </c>
@@ -30639,7 +30639,7 @@
         <v>55.885408149380218</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>0.29021400000000003</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>55.786828206032546</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>0.290885</v>
       </c>
@@ -30985,7 +30985,7 @@
         <v>55.688423677841975</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>0.29155500000000001</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>55.590486192440487</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>0.29222500000000001</v>
       </c>
@@ -31331,7 +31331,7 @@
         <v>55.492867191239633</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>0.29289500000000002</v>
       </c>
@@ -31504,7 +31504,7 @@
         <v>55.395565020902929</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>0.294236</v>
       </c>
@@ -31677,7 +31677,7 @@
         <v>55.201760563453099</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>0.29691699999999999</v>
       </c>
@@ -31850,7 +31850,7 @@
         <v>54.818029916189722</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>0.29758699999999999</v>
       </c>
@@ -32023,7 +32023,7 @@
         <v>54.722901159923445</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>0.29892800000000003</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>54.533413295293819</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>0.29959799999999998</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>54.439192397588563</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>0.30026799999999998</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>54.345270895813719</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>0.30093799999999998</v>
       </c>
@@ -32715,7 +32715,7 @@
         <v>54.251647271935617</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>0.30160900000000002</v>
       </c>
@@ -32888,7 +32888,7 @@
         <v>54.158180944887171</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>0.30227900000000002</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>54.0651490040838</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>0.30294900000000002</v>
       </c>
@@ -33234,7 +33234,7 @@
         <v>53.972410448207889</v>
       </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>0.30361900000000003</v>
       </c>
@@ -33407,7 +33407,7 @@
         <v>53.879963801156329</v>
       </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>0.30429</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>53.787670266843953</v>
       </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>0.30563000000000001</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>53.604224233171031</v>
       </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>0.30630000000000002</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>53.512931089909948</v>
       </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>0.30697099999999999</v>
       </c>
@@ -34099,7 +34099,7 @@
         <v>53.421787003253932</v>
       </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>0.307641</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>53.331062221921705</v>
       </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>0.308311</v>
       </c>
@@ -34445,7 +34445,7 @@
         <v>53.240619294381808</v>
       </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>0.30898100000000001</v>
       </c>
@@ -34618,7 +34618,7 @@
         <v>53.150456824038535</v>
       </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>0.312332</v>
       </c>
@@ -34791,7 +34791,7 @@
         <v>52.703670808127008</v>
       </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>0.31300299999999998</v>
       </c>
@@ -34964,7 +34964,7 @@
         <v>52.615030787749824</v>
       </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>0.31367299999999998</v>
       </c>
@@ -35137,7 +35137,7 @@
         <v>52.526794011330786</v>
       </c>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>0.31501299999999999</v>
       </c>
@@ -35310,7 +35310,7 @@
         <v>52.351127996623269</v>
       </c>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>0.31568400000000002</v>
       </c>
@@ -35483,7 +35483,7 @@
         <v>52.263565843577688</v>
       </c>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>0.31702399999999997</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>52.089498740884373</v>
       </c>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>0.31769399999999998</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>52.002860531246775</v>
       </c>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>0.31836500000000001</v>
       </c>
@@ -36002,7 +36002,7 @@
         <v>51.916355461475113</v>
       </c>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>0.31903500000000001</v>
       </c>
@@ -36175,7 +36175,7 @@
         <v>51.830240107517575</v>
       </c>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>0.31970500000000002</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>51.744384101294138</v>
       </c>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>0.32305600000000001</v>
       </c>
@@ -36521,7 +36521,7 @@
         <v>51.318824950053532</v>
       </c>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>0.32439699999999999</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>51.150299645088516</v>
       </c>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>0.32707799999999998</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>50.816363242497353</v>
       </c>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>0.32774799999999998</v>
       </c>
@@ -37040,7 +37040,7 @@
         <v>50.733525698409629</v>
       </c>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>0.32841799999999999</v>
       </c>
@@ -37213,7 +37213,7 @@
         <v>50.650931934818225</v>
       </c>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>0.33311000000000002</v>
       </c>
@@ -37386,7 +37386,7 @@
         <v>50.079265148992612</v>
       </c>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>0.33579100000000001</v>
       </c>
@@ -37559,7 +37559,7 @@
         <v>49.757810697344588</v>
       </c>
     </row>
-    <row r="216" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>0.33646100000000001</v>
       </c>
@@ -37732,7 +37732,7 @@
         <v>49.678056237408988</v>
       </c>
     </row>
-    <row r="217" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>0.33713100000000001</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>49.598531252115983</v>
       </c>
     </row>
-    <row r="218" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>0.33780199999999999</v>
       </c>
@@ -38078,7 +38078,7 @@
         <v>49.519116506966832</v>
       </c>
     </row>
-    <row r="219" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>0.338472</v>
       </c>
@@ -38251,7 +38251,7 @@
         <v>49.440047661337651</v>
       </c>
     </row>
-    <row r="220" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>0.34115299999999998</v>
       </c>
@@ -38424,7 +38424,7 @@
         <v>49.125908869057589</v>
       </c>
     </row>
-    <row r="221" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>0.34182299999999999</v>
       </c>
@@ -38597,7 +38597,7 @@
         <v>49.047961791043939</v>
       </c>
     </row>
-    <row r="222" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>0.34249299999999999</v>
       </c>
@@ -38770,7 +38770,7 @@
         <v>48.970235954712557</v>
       </c>
     </row>
-    <row r="223" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>0.34383399999999997</v>
       </c>
@@ -38943,7 +38943,7 @@
         <v>48.815328824161263</v>
       </c>
     </row>
-    <row r="224" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>0.34584500000000001</v>
       </c>
@@ -39116,7 +39116,7 @@
         <v>48.584662180277142</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>0.34651500000000002</v>
       </c>
@@ -39289,7 +39289,7 @@
         <v>48.508243652772983</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>0.34718500000000002</v>
       </c>
@@ -39462,7 +39462,7 @@
         <v>48.432039493520229</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>0.34852499999999997</v>
       </c>
@@ -39635,7 +39635,7 @@
         <v>48.280270456205834</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>0.35053600000000001</v>
       </c>
@@ -39808,7 +39808,7 @@
         <v>48.054088915657836</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>0.351877</v>
       </c>
@@ -39981,7 +39981,7 @@
         <v>47.904310242924652</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>0.35522799999999999</v>
       </c>
@@ -40154,7 +40154,7 @@
         <v>47.53363806462125</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>0.356568</v>
       </c>
@@ -40327,7 +40327,7 @@
         <v>47.38683656643726</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>0.35723899999999997</v>
       </c>
@@ -40500,7 +40500,7 @@
         <v>47.313628205470344</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>0.35992000000000002</v>
       </c>
@@ -40673,7 +40673,7 @@
         <v>47.023112612124017</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>0.36126000000000003</v>
       </c>
@@ -40846,7 +40846,7 @@
         <v>46.879090419960058</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>0.36192999999999997</v>
       </c>
@@ -41019,7 +41019,7 @@
         <v>46.807371633843914</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>0.365952</v>
       </c>
@@ -41192,7 +41192,7 @@
         <v>46.38088841665467</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>0.37131399999999998</v>
       </c>
@@ -41365,7 +41365,7 @@
         <v>45.822868671353206</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>0.37198399999999998</v>
       </c>
@@ -41538,7 +41538,7 @@
         <v>45.753972037611241</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>0.37265399999999999</v>
       </c>
@@ -41711,7 +41711,7 @@
         <v>45.685257162561669</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>0.37399500000000002</v>
       </c>
@@ -41884,7 +41884,7 @@
         <v>45.548267756422945</v>
       </c>
     </row>
-    <row r="241" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>0.37801600000000002</v>
       </c>
@@ -42057,7 +42057,7 @@
         <v>45.141790280219844</v>
       </c>
     </row>
-    <row r="242" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>0.379357</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>45.007640184202607</v>
       </c>
     </row>
-    <row r="243" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>0.380027</v>
       </c>
@@ -42403,7 +42403,7 @@
         <v>44.940876050565265</v>
       </c>
     </row>
-    <row r="244" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>0.38069700000000001</v>
       </c>
@@ -42576,7 +42576,7 @@
         <v>44.874284804654401</v>
       </c>
     </row>
-    <row r="245" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>0.38807000000000003</v>
       </c>
@@ -42749,7 +42749,7 @@
         <v>44.152701463098907</v>
       </c>
     </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>0.38873999999999997</v>
       </c>
@@ -42922,7 +42922,7 @@
         <v>44.08813121582174</v>
       </c>
     </row>
-    <row r="247" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>0.39007999999999998</v>
       </c>
@@ -43095,7 +43095,7 @@
         <v>43.959481871971882</v>
       </c>
     </row>
-    <row r="248" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>0.39075100000000001</v>
       </c>
@@ -43268,7 +43268,7 @@
         <v>43.895305934711104</v>
       </c>
     </row>
-    <row r="249" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>0.39142100000000002</v>
       </c>
@@ -43441,7 +43441,7 @@
         <v>43.831387723582687</v>
       </c>
     </row>
-    <row r="250" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>0.39209100000000002</v>
       </c>
@@ -43614,7 +43614,7 @@
         <v>43.767630824530102</v>
       </c>
     </row>
-    <row r="251" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>0.393432</v>
       </c>
@@ -43787,7 +43787,7 @@
         <v>43.640503816442653</v>
       </c>
     </row>
-    <row r="252" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>0.39544200000000002</v>
       </c>
@@ -43960,7 +43960,7 @@
         <v>43.45114963633965</v>
       </c>
     </row>
-    <row r="253" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>0.396783</v>
       </c>
@@ -44133,7 +44133,7 @@
         <v>43.325608597322798</v>
       </c>
     </row>
-    <row r="254" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>0.40080399999999999</v>
       </c>
@@ -44306,7 +44306,7 @@
         <v>42.952904930775944</v>
       </c>
     </row>
-    <row r="255" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>0.40147500000000003</v>
       </c>
@@ -44479,7 +44479,7 @@
         <v>42.891248961682017</v>
       </c>
     </row>
-    <row r="256" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>0.40214499999999997</v>
       </c>
@@ -44652,7 +44652,7 @@
         <v>42.829836959731018</v>
       </c>
     </row>
-    <row r="257" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>0.40281499999999998</v>
       </c>
@@ -44825,7 +44825,7 @@
         <v>42.76857632852704</v>
       </c>
     </row>
-    <row r="258" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>0.40549600000000002</v>
       </c>
@@ -44998,7 +44998,7 @@
         <v>42.52494527546817</v>
       </c>
     </row>
-    <row r="259" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>0.40616600000000003</v>
       </c>
@@ -45171,7 +45171,7 @@
         <v>42.464432890883444</v>
       </c>
     </row>
-    <row r="260" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>0.40750700000000001</v>
       </c>
@@ -45344,7 +45344,7 @@
         <v>42.343761363012348</v>
       </c>
     </row>
-    <row r="261" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>0.40817700000000001</v>
       </c>
@@ -45517,7 +45517,7 @@
         <v>42.28369106012935</v>
       </c>
     </row>
-    <row r="262" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>0.410188</v>
       </c>
@@ -45690,7 +45690,7 @@
         <v>42.104265880802224</v>
       </c>
     </row>
-    <row r="263" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>0.411528</v>
       </c>
@@ -45863,7 +45863,7 @@
         <v>41.985432033664026</v>
       </c>
     </row>
-    <row r="264" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>0.41621999999999998</v>
       </c>
@@ -46036,7 +46036,7 @@
         <v>41.573826517176016</v>
       </c>
     </row>
-    <row r="265" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>0.41688999999999998</v>
       </c>
@@ -46209,7 +46209,7 @@
         <v>41.515613539565408</v>
       </c>
     </row>
-    <row r="266" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>0.41755999999999999</v>
       </c>
@@ -46382,7 +46382,7 @@
         <v>41.457539592614864</v>
       </c>
     </row>
-    <row r="267" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>0.41823100000000002</v>
       </c>
@@ -46555,7 +46555,7 @@
         <v>41.399517781452658</v>
       </c>
     </row>
-    <row r="268" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>0.41890100000000002</v>
       </c>
@@ -46728,7 +46728,7 @@
         <v>41.341720522179763</v>
       </c>
     </row>
-    <row r="269" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>0.41957100000000003</v>
       </c>
@@ -46901,7 +46901,7 @@
         <v>41.284060719081673</v>
       </c>
     </row>
-    <row r="270" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>0.42024099999999998</v>
       </c>
@@ -47074,7 +47074,7 @@
         <v>41.226537853044519</v>
       </c>
     </row>
-    <row r="271" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>0.42091200000000001</v>
       </c>
@@ -47247,7 +47247,7 @@
         <v>41.169065857940865</v>
       </c>
     </row>
-    <row r="272" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>0.42225200000000002</v>
       </c>
@@ -47420,7 +47420,7 @@
         <v>41.054700580944022</v>
       </c>
     </row>
-    <row r="273" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>0.43364599999999998</v>
       </c>
@@ -47593,7 +47593,7 @@
         <v>40.103652019466743</v>
       </c>
     </row>
-    <row r="274" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>0.43431599999999998</v>
       </c>
@@ -47766,7 +47766,7 @@
         <v>40.048890480287412</v>
       </c>
     </row>
-    <row r="275" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>0.44101899999999999</v>
       </c>
@@ -47939,7 +47939,7 @@
         <v>39.507899410928644</v>
       </c>
     </row>
-    <row r="276" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>0.44302900000000001</v>
       </c>
@@ -48112,7 +48112,7 @@
         <v>39.348068069553044</v>
       </c>
     </row>
-    <row r="277" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>0.44973200000000002</v>
       </c>
@@ -48285,7 +48285,7 @@
         <v>38.822821855767423</v>
       </c>
     </row>
-    <row r="278" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>0.455094</v>
       </c>
@@ -48458,7 +48458,7 @@
         <v>38.411043648230567</v>
       </c>
     </row>
-    <row r="279" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>0.45777499999999999</v>
       </c>
@@ -48631,7 +48631,7 @@
         <v>38.207878403628015</v>
       </c>
     </row>
-    <row r="280" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>0.459115</v>
       </c>
@@ -48804,7 +48804,7 @@
         <v>38.107003205595525</v>
       </c>
     </row>
-    <row r="281" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>0.45978599999999997</v>
       </c>
@@ -48977,7 +48977,7 @@
         <v>38.056656637668574</v>
       </c>
     </row>
-    <row r="282" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>0.46112599999999998</v>
       </c>
@@ -49150,7 +49150,7 @@
         <v>37.956443768030098</v>
       </c>
     </row>
-    <row r="283" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>0.46179599999999998</v>
       </c>
@@ -49323,7 +49323,7 @@
         <v>37.906501588100937</v>
       </c>
     </row>
-    <row r="284" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>0.46983900000000001</v>
       </c>
@@ -49496,7 +49496,7 @@
         <v>37.315372927348108</v>
       </c>
     </row>
-    <row r="285" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>0.47184999999999999</v>
       </c>
@@ -49669,7 +49669,7 @@
         <v>37.16995215328815</v>
       </c>
     </row>
-    <row r="286" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>0.47587099999999999</v>
       </c>
@@ -49842,7 +49842,7 @@
         <v>36.881970131345284</v>
       </c>
     </row>
-    <row r="287" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>0.48123300000000002</v>
       </c>
@@ -50015,7 +50015,7 @@
         <v>36.503618162596311</v>
       </c>
     </row>
-    <row r="288" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>0.482574</v>
       </c>
@@ -50188,7 +50188,7 @@
         <v>36.409990170323283</v>
       </c>
     </row>
-    <row r="289" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>0.48793599999999998</v>
       </c>
@@ -50361,7 +50361,7 @@
         <v>36.039518500191917</v>
       </c>
     </row>
-    <row r="290" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>0.49530800000000003</v>
       </c>
@@ -50534,7 +50534,7 @@
         <v>35.540127031168439</v>
       </c>
     </row>
-    <row r="291" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>0.50737299999999996</v>
       </c>
@@ -50707,7 +50707,7 @@
         <v>34.746712197628192</v>
       </c>
     </row>
-    <row r="292" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>0.51072399999999996</v>
       </c>
@@ -50880,7 +50880,7 @@
         <v>34.531417596175956</v>
       </c>
     </row>
-    <row r="293" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>0.51608600000000004</v>
       </c>
@@ -51053,7 +51053,7 @@
         <v>34.191359158586643</v>
       </c>
     </row>
-    <row r="294" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>0.51876699999999998</v>
       </c>
@@ -51226,7 +51226,7 @@
         <v>34.023342272748152</v>
       </c>
     </row>
-    <row r="295" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>0.52010699999999999</v>
       </c>
@@ -51399,7 +51399,7 @@
         <v>33.939860675888738</v>
       </c>
     </row>
-    <row r="296" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>0.52077700000000005</v>
       </c>
@@ -51572,7 +51572,7 @@
         <v>33.898242824278334</v>
       </c>
     </row>
-    <row r="297" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>0.52278800000000003</v>
       </c>
@@ -51745,7 +51745,7 @@
         <v>33.773816312537477</v>
       </c>
     </row>
-    <row r="298" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>0.52345799999999998</v>
       </c>
@@ -51918,7 +51918,7 @@
         <v>33.732523562704621</v>
       </c>
     </row>
-    <row r="299" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>0.52479900000000002</v>
       </c>
@@ -52091,7 +52091,7 @@
         <v>33.65011833207685</v>
       </c>
     </row>
-    <row r="300" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>0.52546899999999996</v>
       </c>
@@ -52264,7 +52264,7 @@
         <v>33.609066803901236</v>
       </c>
     </row>
-    <row r="301" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>0.52613900000000002</v>
       </c>
@@ -52437,7 +52437,7 @@
         <v>33.568095147004662</v>
       </c>
     </row>
-    <row r="302" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>0.52747999999999995</v>
       </c>
@@ -52610,7 +52610,7 @@
         <v>33.486329608345905</v>
       </c>
     </row>
-    <row r="303" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>0.52815000000000001</v>
       </c>
@@ -52783,7 +52783,7 @@
         <v>33.445596210560922</v>
       </c>
     </row>
-    <row r="304" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>0.53016099999999999</v>
       </c>
@@ -52956,7 +52956,7 @@
         <v>33.32380802032668</v>
       </c>
     </row>
-    <row r="305" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>0.53686299999999998</v>
       </c>
@@ -53129,7 +53129,7 @@
         <v>32.922976476678457</v>
       </c>
     </row>
-    <row r="306" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>0.53753399999999996</v>
       </c>
@@ -53302,7 +53302,7 @@
         <v>32.883267134479141</v>
       </c>
     </row>
-    <row r="307" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>0.53887399999999996</v>
       </c>
@@ -53475,7 +53475,7 @@
         <v>32.804193475425166</v>
       </c>
     </row>
-    <row r="308" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>0.54021399999999997</v>
       </c>
@@ -53648,7 +53648,7 @@
         <v>32.725420371093328</v>
       </c>
     </row>
-    <row r="309" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>0.54088499999999995</v>
       </c>
@@ -53821,7 +53821,7 @@
         <v>32.686087398884446</v>
       </c>
     </row>
-    <row r="310" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>0.54155500000000001</v>
       </c>
@@ -53994,7 +53994,7 @@
         <v>32.646887562707853</v>
       </c>
     </row>
-    <row r="311" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>0.54289500000000002</v>
       </c>
@@ -54167,7 +54167,7 @@
         <v>32.568710382857013</v>
       </c>
     </row>
-    <row r="312" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>0.544906</v>
       </c>
@@ -54340,7 +54340,7 @@
         <v>32.451939616967771</v>
       </c>
     </row>
-    <row r="313" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>0.54557599999999995</v>
       </c>
@@ -54513,7 +54513,7 @@
         <v>32.413181998990403</v>
       </c>
     </row>
-    <row r="314" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>0.54624700000000004</v>
       </c>
@@ -54686,7 +54686,7 @@
         <v>32.374439613019426</v>
       </c>
     </row>
-    <row r="315" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>0.54691699999999999</v>
       </c>
@@ -54859,7 +54859,7 @@
         <v>32.335827718152679</v>
       </c>
     </row>
-    <row r="316" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>0.54758700000000005</v>
       </c>
@@ -55032,7 +55032,7 @@
         <v>32.297288305445505</v>
       </c>
     </row>
-    <row r="317" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>0.54825699999999999</v>
       </c>
@@ -55205,7 +55205,7 @@
         <v>32.258821159477066</v>
       </c>
     </row>
-    <row r="318" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>0.55227899999999996</v>
       </c>
@@ -55378,7 +55378,7 @@
         <v>32.029410491461917</v>
       </c>
     </row>
-    <row r="319" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>0.55294900000000002</v>
       </c>
@@ -55551,7 +55551,7 @@
         <v>31.991443465080899</v>
       </c>
     </row>
-    <row r="320" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>0.55361899999999997</v>
       </c>
@@ -55724,7 +55724,7 @@
         <v>31.953547012695786</v>
       </c>
     </row>
-    <row r="321" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>0.55630000000000002</v>
       </c>
@@ -55897,7 +55897,7 @@
         <v>31.80260671059316</v>
       </c>
     </row>
-    <row r="322" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>0.55764100000000005</v>
       </c>
@@ -56070,7 +56070,7 @@
         <v>31.727527011947679</v>
       </c>
     </row>
-    <row r="323" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>0.55898099999999995</v>
       </c>
@@ -56243,7 +56243,7 @@
         <v>31.652779954077985</v>
       </c>
     </row>
-    <row r="324" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>0.55965100000000001</v>
       </c>
@@ -56416,7 +56416,7 @@
         <v>31.615509626918652</v>
       </c>
     </row>
-    <row r="325" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>0.56166199999999999</v>
       </c>
@@ -56589,7 +56589,7 @@
         <v>31.504053781035637</v>
       </c>
     </row>
-    <row r="326" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>0.56233200000000005</v>
       </c>
@@ -56762,7 +56762,7 @@
         <v>31.467056496951557</v>
       </c>
     </row>
-    <row r="327" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>0.56501299999999999</v>
       </c>
@@ -56935,7 +56935,7 @@
         <v>31.319688038641509</v>
       </c>
     </row>
-    <row r="328" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>0.56769400000000003</v>
       </c>
@@ -57108,7 +57108,7 @@
         <v>31.173391748236391</v>
       </c>
     </row>
-    <row r="329" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>0.56970500000000002</v>
       </c>
@@ -57281,7 +57281,7 @@
         <v>31.064352211557619</v>
       </c>
     </row>
-    <row r="330" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>0.57104600000000005</v>
       </c>
@@ -57454,7 +57454,7 @@
         <v>30.99196998232545</v>
       </c>
     </row>
-    <row r="331" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>0.57573700000000005</v>
       </c>
@@ -57627,7 +57627,7 @@
         <v>30.740813779761602</v>
       </c>
     </row>
-    <row r="332" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>0.57841799999999999</v>
       </c>
@@ -57800,7 +57800,7 @@
         <v>30.598685006751325</v>
       </c>
     </row>
-    <row r="333" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>0.57908800000000005</v>
       </c>
@@ -57973,7 +57973,7 @@
         <v>30.563324650891012</v>
       </c>
     </row>
-    <row r="334" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>0.57975900000000002</v>
       </c>
@@ -58146,7 +58146,7 @@
         <v>30.527974715849851</v>
       </c>
     </row>
-    <row r="335" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>0.58243999999999996</v>
       </c>
@@ -58319,7 +58319,7 @@
         <v>30.387360643801571</v>
       </c>
     </row>
-    <row r="336" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>0.58780200000000005</v>
       </c>
@@ -58492,7 +58492,7 @@
         <v>30.109107954626985</v>
       </c>
     </row>
-    <row r="337" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>0.588472</v>
       </c>
@@ -58665,7 +58665,7 @@
         <v>30.074614805488324</v>
       </c>
     </row>
-    <row r="338" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>0.58914200000000005</v>
       </c>
@@ -58838,7 +58838,7 @@
         <v>30.040182282111488</v>
       </c>
     </row>
-    <row r="339" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>0.589812</v>
       </c>
@@ -59011,7 +59011,7 @@
         <v>30.005810215911168</v>
       </c>
     </row>
-    <row r="340" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>0.59115300000000004</v>
       </c>
@@ -59184,7 +59184,7 @@
         <v>29.937195706887714</v>
       </c>
     </row>
-    <row r="341" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>0.59182299999999999</v>
       </c>
@@ -59357,7 +59357,7 @@
         <v>29.903004096479485</v>
       </c>
     </row>
-    <row r="342" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>0.59249300000000005</v>
       </c>
@@ -59530,7 +59530,7 @@
         <v>29.868872275056937</v>
       </c>
     </row>
-    <row r="343" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>0.59852499999999997</v>
       </c>
@@ -59703,7 +59703,7 @@
         <v>29.564249086527269</v>
       </c>
     </row>
-    <row r="344" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>0.59919599999999995</v>
       </c>
@@ -59876,7 +59876,7 @@
         <v>29.530656313415911</v>
       </c>
     </row>
-    <row r="345" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>0.59986600000000001</v>
       </c>
@@ -60049,7 +60049,7 @@
         <v>29.497171650296082</v>
       </c>
     </row>
-    <row r="346" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>0.603217</v>
       </c>
@@ -60222,7 +60222,7 @@
         <v>29.330563340494457</v>
       </c>
     </row>
-    <row r="347" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>0.60522799999999999</v>
       </c>
@@ -60395,7 +60395,7 @@
         <v>29.231265032985647</v>
       </c>
     </row>
-    <row r="348" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>0.606568</v>
       </c>
@@ -60568,7 +60568,7 @@
         <v>29.165382400575858</v>
       </c>
     </row>
-    <row r="349" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>0.60723899999999997</v>
       </c>
@@ -60741,7 +60741,7 @@
         <v>29.132476596928186</v>
       </c>
     </row>
-    <row r="350" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>0.60790900000000003</v>
       </c>
@@ -60914,7 +60914,7 @@
         <v>29.099676012140094</v>
       </c>
     </row>
-    <row r="351" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>0.60992000000000002</v>
       </c>
@@ -61087,7 +61087,7 @@
         <v>29.00156090070417</v>
       </c>
     </row>
-    <row r="352" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>0.61394099999999996</v>
       </c>
@@ -61260,7 +61260,7 @@
         <v>28.806875723028291</v>
       </c>
     </row>
-    <row r="353" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>0.61461100000000002</v>
       </c>
@@ -61433,7 +61433,7 @@
         <v>28.774628418975198</v>
       </c>
     </row>
-    <row r="354" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>0.61595200000000006</v>
       </c>
@@ -61606,7 +61606,7 @@
         <v>28.710249232800088</v>
       </c>
     </row>
-    <row r="355" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>0.61796200000000001</v>
       </c>
@@ -61779,7 +61779,7 @@
         <v>28.614158782389794</v>
       </c>
     </row>
-    <row r="356" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>0.61863299999999999</v>
       </c>
@@ -61952,7 +61952,7 @@
         <v>28.582188768743819</v>
       </c>
     </row>
-    <row r="357" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>0.619973</v>
       </c>
@@ -62125,7 +62125,7 @@
         <v>28.518504865417981</v>
       </c>
     </row>
-    <row r="358" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>0.62131400000000003</v>
       </c>
@@ -62298,7 +62298,7 @@
         <v>28.454987065585826</v>
       </c>
     </row>
-    <row r="359" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>0.62332399999999999</v>
       </c>
@@ -62471,7 +62471,7 @@
         <v>28.36017917025638</v>
       </c>
     </row>
-    <row r="360" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>0.62466500000000003</v>
       </c>
@@ -62644,7 +62644,7 @@
         <v>28.297190471951609</v>
       </c>
     </row>
-    <row r="361" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>0.62533499999999997</v>
       </c>
@@ -62817,7 +62817,7 @@
         <v>28.265798268216514</v>
       </c>
     </row>
-    <row r="362" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>0.62600500000000003</v>
       </c>
@@ -62990,7 +62990,7 @@
         <v>28.234458294095425</v>
       </c>
     </row>
-    <row r="363" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>0.62667600000000001</v>
       </c>
@@ -63163,7 +63163,7 @@
         <v>28.203123752714923</v>
       </c>
     </row>
-    <row r="364" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>0.62801600000000002</v>
       </c>
@@ -63336,7 +63336,7 @@
         <v>28.140703873041005</v>
       </c>
     </row>
-    <row r="365" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>0.63069699999999995</v>
       </c>
@@ -63509,7 +63509,7 @@
         <v>28.016437028861112</v>
       </c>
     </row>
-    <row r="366" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>0.63136700000000001</v>
       </c>
@@ -63682,7 +63682,7 @@
         <v>27.985510138821105</v>
       </c>
     </row>
-    <row r="367" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>0.63203799999999999</v>
       </c>
@@ -63855,7 +63855,7 @@
         <v>27.954588213642445</v>
       </c>
     </row>
-    <row r="368" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>0.63270800000000005</v>
       </c>
@@ -64028,7 +64028,7 @@
         <v>27.923763286825931</v>
       </c>
     </row>
-    <row r="369" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>0.63538899999999998</v>
       </c>
@@ -64201,7 +64201,7 @@
         <v>27.800924037454465</v>
       </c>
     </row>
-    <row r="370" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>0.63873999999999997</v>
       </c>
@@ -64374,7 +64374,7 @@
         <v>27.648516102940391</v>
       </c>
     </row>
-    <row r="371" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>0.63941000000000003</v>
       </c>
@@ -64547,7 +64547,7 @@
         <v>27.618192880889787</v>
       </c>
     </row>
-    <row r="372" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>0.64209099999999997</v>
       </c>
@@ -64720,7 +64720,7 @@
         <v>27.497348234843507</v>
       </c>
     </row>
-    <row r="373" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>0.643432</v>
       </c>
@@ -64893,7 +64893,7 @@
         <v>27.437197868008276</v>
       </c>
     </row>
-    <row r="374" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>0.64477200000000001</v>
       </c>
@@ -65066,7 +65066,7 @@
         <v>27.37728717271505</v>
       </c>
     </row>
-    <row r="375" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>0.64611300000000005</v>
       </c>
@@ -65239,7 +65239,7 @@
         <v>27.317525731876742</v>
       </c>
     </row>
-    <row r="376" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>0.64745299999999995</v>
       </c>
@@ -65412,7 +65412,7 @@
         <v>27.258001685001929</v>
       </c>
     </row>
-    <row r="377" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>0.64879399999999998</v>
       </c>
@@ -65585,7 +65585,7 @@
         <v>27.198625206021262</v>
       </c>
     </row>
-    <row r="378" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>0.65080400000000005</v>
       </c>
@@ -65758,7 +65758,7 @@
         <v>27.109984454264684</v>
       </c>
     </row>
-    <row r="379" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>0.65214499999999997</v>
       </c>
@@ -65931,7 +65931,7 @@
         <v>27.051083651805058</v>
       </c>
     </row>
-    <row r="380" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>0.65281500000000003</v>
       </c>
@@ -66104,7 +66104,7 @@
         <v>27.02172595229446</v>
       </c>
     </row>
-    <row r="381" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>0.65348499999999998</v>
       </c>
@@ -66277,7 +66277,7 @@
         <v>26.992415230287705</v>
       </c>
     </row>
-    <row r="382" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>0.65683599999999998</v>
       </c>
@@ -66450,7 +66450,7 @@
         <v>26.84651877368259</v>
       </c>
     </row>
-    <row r="383" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>0.65951700000000002</v>
       </c>
@@ -66623,7 +66623,7 @@
         <v>26.730627069882019</v>
       </c>
     </row>
-    <row r="384" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>0.66085799999999995</v>
       </c>
@@ -66796,7 +66796,7 @@
         <v>26.672935252752787</v>
       </c>
     </row>
-    <row r="385" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>0.661528</v>
       </c>
@@ -66969,7 +66969,7 @@
         <v>26.644179313164578</v>
       </c>
     </row>
-    <row r="386" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>0.66219799999999995</v>
       </c>
@@ -67142,7 +67142,7 @@
         <v>26.615468837523814</v>
       </c>
     </row>
-    <row r="387" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>0.66286900000000004</v>
       </c>
@@ -67315,7 +67315,7 @@
         <v>26.586760962296125</v>
       </c>
     </row>
-    <row r="388" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>0.66420900000000005</v>
       </c>
@@ -67488,7 +67488,7 @@
         <v>26.529566444968985</v>
       </c>
     </row>
-    <row r="389" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>0.66554999999999997</v>
       </c>
@@ -67661,7 +67661,7 @@
         <v>26.472509493705864</v>
       </c>
     </row>
-    <row r="390" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>0.67091199999999995</v>
       </c>
@@ -67834,7 +67834,7 @@
         <v>26.246150903869797</v>
       </c>
     </row>
-    <row r="391" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>0.67292200000000002</v>
       </c>
@@ -68007,7 +68007,7 @@
         <v>26.16202577752167</v>
       </c>
     </row>
-    <row r="392" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>0.67560299999999995</v>
       </c>
@@ -68180,7 +68180,7 @@
         <v>26.050427123431973</v>
       </c>
     </row>
-    <row r="393" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>0.67694399999999999</v>
       </c>
@@ -68353,7 +68353,7 @@
         <v>25.994866673909264</v>
       </c>
     </row>
-    <row r="394" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>0.67761400000000005</v>
       </c>
@@ -68526,7 +68526,7 @@
         <v>25.967171668515519</v>
       </c>
     </row>
-    <row r="395" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>0.678284</v>
       </c>
@@ -68699,7 +68699,7 @@
         <v>25.939519503691038</v>
       </c>
     </row>
-    <row r="396" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>0.67895399999999995</v>
       </c>
@@ -68872,7 +68872,7 @@
         <v>25.911910074722208</v>
       </c>
     </row>
-    <row r="397" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>0.67962500000000003</v>
       </c>
@@ -69045,7 +69045,7 @@
         <v>25.884302164582387</v>
       </c>
     </row>
-    <row r="398" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>0.68029499999999998</v>
       </c>
@@ -69218,7 +69218,7 @@
         <v>25.856777957981606</v>
       </c>
     </row>
-    <row r="399" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>0.68632700000000002</v>
       </c>
@@ -69391,7 +69391,7 @@
         <v>25.610875866031961</v>
       </c>
     </row>
-    <row r="400" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>0.68900799999999995</v>
       </c>
@@ -69564,7 +69564,7 @@
         <v>25.502665842692664</v>
       </c>
     </row>
-    <row r="401" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>0.691689</v>
       </c>
@@ -69737,7 +69737,7 @@
         <v>25.395114021527263</v>
       </c>
     </row>
-    <row r="402" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>0.69302900000000001</v>
       </c>
@@ -69910,7 +69910,7 @@
         <v>25.341602898628132</v>
       </c>
     </row>
-    <row r="403" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>0.69437000000000004</v>
       </c>
@@ -70083,7 +70083,7 @@
         <v>25.288214093965031</v>
       </c>
     </row>
-    <row r="404" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>0.69503999999999999</v>
       </c>
@@ -70256,7 +70256,7 @@
         <v>25.261600162108273</v>
       </c>
     </row>
-    <row r="405" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>0.69571000000000005</v>
       </c>
@@ -70429,7 +70429,7 @@
         <v>25.235026457610793</v>
       </c>
     </row>
-    <row r="406" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>0.69973200000000002</v>
       </c>
@@ -70602,7 +70602,7 @@
         <v>25.07634509708825</v>
       </c>
     </row>
-    <row r="407" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>0.70040199999999997</v>
       </c>
@@ -70775,7 +70775,7 @@
         <v>25.050050429922258</v>
       </c>
     </row>
-    <row r="408" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>0.70107200000000003</v>
       </c>
@@ -70948,7 +70948,7 @@
         <v>25.023795230092325</v>
       </c>
     </row>
-    <row r="409" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>0.70375299999999996</v>
       </c>
@@ -71121,7 +71121,7 @@
         <v>24.919128313625052</v>
       </c>
     </row>
-    <row r="410" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>0.705094</v>
       </c>
@@ -71294,7 +71294,7 @@
         <v>24.867010011363448</v>
       </c>
     </row>
-    <row r="411" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>0.71246600000000004</v>
       </c>
@@ -71467,7 +71467,7 @@
         <v>24.583253107913727</v>
       </c>
     </row>
-    <row r="412" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>0.71313700000000002</v>
       </c>
@@ -71640,7 +71640,7 @@
         <v>24.557654711833479</v>
       </c>
     </row>
-    <row r="413" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>0.71983900000000001</v>
       </c>
@@ -71813,7 +71813,7 @@
         <v>24.304038639986643</v>
       </c>
     </row>
-    <row r="414" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>0.72453100000000004</v>
       </c>
@@ -71986,7 +71986,7 @@
         <v>24.128685440409733</v>
       </c>
     </row>
-    <row r="415" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>0.72788200000000003</v>
       </c>
@@ -72159,7 +72159,7 @@
         <v>24.004540007598393</v>
       </c>
     </row>
-    <row r="416" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>0.72855199999999998</v>
       </c>
@@ -72332,7 +72332,7 @@
         <v>23.979826285017715</v>
       </c>
     </row>
-    <row r="417" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>0.73123300000000002</v>
       </c>
@@ -72505,7 +72505,7 @@
         <v>23.881291768310476</v>
       </c>
     </row>
-    <row r="418" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>0.73190299999999997</v>
       </c>
@@ -72678,7 +72678,7 @@
         <v>23.856756201570505</v>
       </c>
     </row>
-    <row r="419" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>0.73324400000000001</v>
       </c>
@@ -72851,7 +72851,7 @@
         <v>23.807754630262728</v>
       </c>
     </row>
-    <row r="420" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>0.74463800000000002</v>
       </c>
@@ -73024,7 +73024,7 @@
         <v>23.397033388292805</v>
       </c>
     </row>
-    <row r="421" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>0.74664900000000001</v>
       </c>
@@ -73197,7 +73197,7 @@
         <v>23.325570900087591</v>
       </c>
     </row>
-    <row r="422" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>0.74865999999999999</v>
       </c>
@@ -73370,7 +73370,7 @@
         <v>23.254411661857176</v>
       </c>
     </row>
-    <row r="423" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>0.75402100000000005</v>
       </c>
@@ -73543,7 +73543,7 @@
         <v>23.066179071344514</v>
       </c>
     </row>
-    <row r="424" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>0.75871299999999997</v>
       </c>
@@ -73716,7 +73716,7 @@
         <v>22.903163016353872</v>
       </c>
     </row>
-    <row r="425" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>0.75938300000000003</v>
       </c>
@@ -73889,7 +73889,7 @@
         <v>22.880014919581875</v>
       </c>
     </row>
-    <row r="426" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>0.76407499999999995</v>
       </c>
@@ -74062,7 +74062,7 @@
         <v>22.718809437500035</v>
       </c>
     </row>
-    <row r="427" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>0.76474500000000001</v>
       </c>
@@ -74235,7 +74235,7 @@
         <v>22.695917612842862</v>
       </c>
     </row>
-    <row r="428" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>0.76608600000000004</v>
       </c>
@@ -74408,7 +74408,7 @@
         <v>22.650194965985719</v>
       </c>
     </row>
-    <row r="429" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>0.76943700000000004</v>
       </c>
@@ -74581,7 +74581,7 @@
         <v>22.536491135242223</v>
       </c>
     </row>
-    <row r="430" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>0.77345799999999998</v>
       </c>
@@ -74754,7 +74754,7 @@
         <v>22.401083576697623</v>
       </c>
     </row>
-    <row r="431" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>0.77412899999999996</v>
       </c>
@@ -74927,7 +74927,7 @@
         <v>22.378596061281407</v>
       </c>
     </row>
-    <row r="432" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>0.77479900000000002</v>
       </c>
@@ -75100,7 +75100,7 @@
         <v>22.35617283676158</v>
       </c>
     </row>
-    <row r="433" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>0.77613900000000002</v>
       </c>
@@ -75273,7 +75273,7 @@
         <v>22.311418385386524</v>
       </c>
     </row>
-    <row r="434" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>0.77815000000000001</v>
       </c>
@@ -75446,7 +75446,7 @@
         <v>22.244482494254754</v>
       </c>
     </row>
-    <row r="435" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>0.77881999999999996</v>
       </c>
@@ -75619,7 +75619,7 @@
         <v>22.222242452421789</v>
       </c>
     </row>
-    <row r="436" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>0.78016099999999999</v>
       </c>
@@ -75792,7 +75792,7 @@
         <v>22.177820101588075</v>
       </c>
     </row>
-    <row r="437" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>0.781501</v>
       </c>
@@ -75965,7 +75965,7 @@
         <v>22.133551573956332</v>
       </c>
     </row>
-    <row r="438" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>0.78217199999999998</v>
       </c>
@@ -76138,7 +76138,7 @@
         <v>22.111429446297088</v>
       </c>
     </row>
-    <row r="439" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>0.79155500000000001</v>
       </c>
@@ -76311,7 +76311,7 @@
         <v>21.805202362659664</v>
       </c>
     </row>
-    <row r="440" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>0.79356599999999999</v>
       </c>
@@ -76484,7 +76484,7 @@
         <v>21.74031880960041</v>
       </c>
     </row>
-    <row r="441" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>0.80294900000000002</v>
       </c>
@@ -76657,7 +76657,7 @@
         <v>21.4409979945655</v>
       </c>
     </row>
-    <row r="442" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>0.80496000000000001</v>
       </c>
@@ -76830,7 +76830,7 @@
         <v>21.377568210639815</v>
       </c>
     </row>
-    <row r="443" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>0.80898099999999995</v>
       </c>
@@ -77003,7 +77003,7 @@
         <v>21.25149203277897</v>
       </c>
     </row>
-    <row r="444" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>0.81166199999999999</v>
       </c>
@@ -77176,7 +77176,7 @@
         <v>21.167982766137555</v>
       </c>
     </row>
-    <row r="445" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>0.81635400000000002</v>
       </c>
@@ -77349,7 +77349,7 @@
         <v>21.022884052096934</v>
       </c>
     </row>
-    <row r="446" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>0.81903499999999996</v>
       </c>
@@ -77522,7 +77522,7 @@
         <v>20.940568880805706</v>
       </c>
     </row>
-    <row r="447" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>0.82372699999999999</v>
       </c>
@@ -77695,7 +77695,7 @@
         <v>20.797536381874572</v>
       </c>
     </row>
-    <row r="448" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>0.82439700000000005</v>
       </c>
@@ -77868,7 +77868,7 @@
         <v>20.777217629616445</v>
       </c>
     </row>
-    <row r="449" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>0.82841799999999999</v>
       </c>
@@ -78041,7 +78041,7 @@
         <v>20.655824764597583</v>
       </c>
     </row>
-    <row r="450" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>0.82908800000000005</v>
       </c>
@@ -78214,7 +78214,7 @@
         <v>20.635688795032571</v>
       </c>
     </row>
-    <row r="451" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>0.82975900000000002</v>
       </c>
@@ -78387,7 +78387,7 @@
         <v>20.615548724055486</v>
       </c>
     </row>
-    <row r="452" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>0.83109900000000003</v>
       </c>
@@ -78560,7 +78560,7 @@
         <v>20.575406123407006</v>
       </c>
     </row>
-    <row r="453" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>0.83176899999999998</v>
       </c>
@@ -78733,7 +78733,7 @@
         <v>20.55537345478232</v>
       </c>
     </row>
-    <row r="454" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>0.83243999999999996</v>
       </c>
@@ -78906,7 +78906,7 @@
         <v>20.53533662911105</v>
       </c>
     </row>
-    <row r="455" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>0.83311000000000002</v>
       </c>
@@ -79079,7 +79079,7 @@
         <v>20.515355316656034</v>
       </c>
     </row>
-    <row r="456" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>0.83377999999999997</v>
       </c>
@@ -79252,7 +79252,7 @@
         <v>20.495399585310523</v>
       </c>
     </row>
-    <row r="457" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>0.83579099999999995</v>
       </c>
@@ -79425,7 +79425,7 @@
         <v>20.435655710354823</v>
       </c>
     </row>
-    <row r="458" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>0.83646100000000001</v>
       </c>
@@ -79598,7 +79598,7 @@
         <v>20.415801826034084</v>
       </c>
     </row>
-    <row r="459" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>0.83713099999999996</v>
       </c>
@@ -79771,7 +79771,7 @@
         <v>20.395973265832772</v>
       </c>
     </row>
-    <row r="460" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>0.839812</v>
       </c>
@@ -79944,7 +79944,7 @@
         <v>20.316881823476784</v>
       </c>
     </row>
-    <row r="461" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>0.84115300000000004</v>
       </c>
@@ -80117,7 +80117,7 @@
         <v>20.277472165337031</v>
       </c>
     </row>
-    <row r="462" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>0.84249300000000005</v>
       </c>
@@ -80290,7 +80290,7 @@
         <v>20.238191813738609</v>
       </c>
     </row>
-    <row r="463" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>0.84316400000000002</v>
       </c>
@@ -80463,7 +80463,7 @@
         <v>20.218559728987536</v>
       </c>
     </row>
-    <row r="464" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>0.84450400000000003</v>
       </c>
@@ -80636,7 +80636,7 @@
         <v>20.179428524625024</v>
       </c>
     </row>
-    <row r="465" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>0.84517399999999998</v>
       </c>
@@ -80809,7 +80809,7 @@
         <v>20.159900029499283</v>
       </c>
     </row>
-    <row r="466" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>0.84584499999999996</v>
       </c>
@@ -80982,7 +80982,7 @@
         <v>20.140367114856744</v>
       </c>
     </row>
-    <row r="467" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>0.84651500000000002</v>
       </c>
@@ -81155,7 +81155,7 @@
         <v>20.120887951777469</v>
       </c>
     </row>
-    <row r="468" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>0.84785500000000003</v>
       </c>
@@ -81328,7 +81328,7 @@
         <v>20.082003298629161</v>
       </c>
     </row>
-    <row r="469" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>0.84852499999999997</v>
       </c>
@@ -81501,7 +81501,7 @@
         <v>20.062597710887722</v>
       </c>
     </row>
-    <row r="470" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>0.84919599999999995</v>
       </c>
@@ -81674,7 +81674,7 @@
         <v>20.04318764193598</v>
       </c>
     </row>
-    <row r="471" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>0.84986600000000001</v>
       </c>
@@ -81847,7 +81847,7 @@
         <v>20.023830897363915</v>
       </c>
     </row>
-    <row r="472" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>0.85053599999999996</v>
       </c>
@@ -82020,7 +82020,7 @@
         <v>20.004498483504022</v>
       </c>
     </row>
-    <row r="473" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>0.85120600000000002</v>
       </c>
@@ -82193,7 +82193,7 @@
         <v>19.985190352115019</v>
       </c>
     </row>
-    <row r="474" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>0.85254700000000005</v>
       </c>
@@ -82366,7 +82366,7 @@
         <v>19.946618016654462</v>
       </c>
     </row>
-    <row r="475" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>0.853217</v>
       </c>
@@ -82539,7 +82539,7 @@
         <v>19.927382480529232</v>
       </c>
     </row>
-    <row r="476" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>0.85455800000000004</v>
       </c>
@@ -82712,7 +82712,7 @@
         <v>19.88895501293721</v>
       </c>
     </row>
-    <row r="477" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>0.85522799999999999</v>
       </c>
@@ -82885,7 +82885,7 @@
         <v>19.869791642164053</v>
       </c>
     </row>
-    <row r="478" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>0.85790900000000003</v>
       </c>
@@ -83058,7 +83058,7 @@
         <v>19.793348728731736</v>
       </c>
     </row>
-    <row r="479" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>0.85857899999999998</v>
       </c>
@@ -83231,7 +83231,7 @@
         <v>19.774304664000596</v>
       </c>
     </row>
-    <row r="480" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>0.85924900000000004</v>
       </c>
@@ -83404,7 +83404,7 @@
         <v>19.755284312718786</v>
       </c>
     </row>
-    <row r="481" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>0.85992000000000002</v>
       </c>
@@ -83577,7 +83577,7 @@
         <v>19.736259292717385</v>
       </c>
     </row>
-    <row r="482" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>0.86260099999999995</v>
       </c>
@@ -83750,7 +83750,7 @@
         <v>19.660480242136025</v>
       </c>
     </row>
-    <row r="483" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>0.86394099999999996</v>
       </c>
@@ -83923,7 +83923,7 @@
         <v>19.622745683292123</v>
       </c>
     </row>
-    <row r="484" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>0.86796200000000001</v>
       </c>
@@ -84096,7 +84096,7 @@
         <v>19.510072896245333</v>
       </c>
     </row>
-    <row r="485" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>0.87064299999999994</v>
       </c>
@@ -84269,7 +84269,7 @@
         <v>19.435410728308085</v>
       </c>
     </row>
-    <row r="486" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>0.87265400000000004</v>
       </c>
@@ -84442,7 +84442,7 @@
         <v>19.379647902788584</v>
       </c>
     </row>
-    <row r="487" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>0.87332399999999999</v>
       </c>
@@ -84615,7 +84615,7 @@
         <v>19.361115134809992</v>
       </c>
     </row>
-    <row r="488" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>0.87533499999999997</v>
       </c>
@@ -84788,7 +84788,7 @@
         <v>19.305625413518179</v>
       </c>
     </row>
-    <row r="489" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>0.87734599999999996</v>
       </c>
@@ -84961,7 +84961,7 @@
         <v>19.250339163005648</v>
       </c>
     </row>
-    <row r="490" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>0.87935700000000006</v>
       </c>
@@ -85134,7 +85134,7 @@
         <v>19.195255208295173</v>
       </c>
     </row>
-    <row r="491" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>0.88672899999999999</v>
       </c>
@@ -85307,7 +85307,7 @@
         <v>18.995037684809688</v>
       </c>
     </row>
-    <row r="492" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>0.88873999999999997</v>
       </c>
@@ -85480,7 +85480,7 @@
         <v>18.940882348546701</v>
       </c>
     </row>
-    <row r="493" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>0.89142100000000002</v>
       </c>
@@ -85653,7 +85653,7 @@
         <v>18.868988552543598</v>
       </c>
     </row>
-    <row r="494" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>0.89477200000000001</v>
       </c>
@@ -85826,7 +85826,7 @@
         <v>18.779613345725629</v>
       </c>
     </row>
-    <row r="495" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>0.89879399999999998</v>
       </c>
@@ -85999,7 +85999,7 @@
         <v>18.673047063962713</v>
       </c>
     </row>
-    <row r="496" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>0.90549599999999997</v>
       </c>
@@ -86172,7 +86172,7 @@
         <v>18.497158930583069</v>
       </c>
     </row>
-    <row r="497" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>0.90616600000000003</v>
       </c>
@@ -86345,7 +86345,7 @@
         <v>18.47969007180545</v>
       </c>
     </row>
-    <row r="498" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>0.90884699999999996</v>
       </c>
@@ -86518,7 +86518,7 @@
         <v>18.409995256161118</v>
       </c>
     </row>
-    <row r="499" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>0.91420900000000005</v>
       </c>
@@ -86691,7 +86691,7 @@
         <v>18.271589840363134</v>
       </c>
     </row>
-    <row r="500" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>0.92091199999999995</v>
       </c>
@@ -86864,7 +86864,7 @@
         <v>18.10039081843086</v>
       </c>
     </row>
-    <row r="501" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>0.92225199999999996</v>
       </c>
@@ -87037,7 +87037,7 @@
         <v>18.066405994955559</v>
       </c>
     </row>
-    <row r="502" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>0.92426299999999995</v>
       </c>
@@ -87210,7 +87210,7 @@
         <v>18.015551869939792</v>
       </c>
     </row>
-    <row r="503" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>0.92560299999999995</v>
       </c>
@@ -87383,7 +87383,7 @@
         <v>17.981764487265977</v>
       </c>
     </row>
-    <row r="504" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>0.92694399999999999</v>
       </c>
@@ -87556,7 +87556,7 @@
         <v>17.94803042458657</v>
       </c>
     </row>
-    <row r="505" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>0.928284</v>
       </c>
@@ -87729,7 +87729,7 @@
         <v>17.914399706582458</v>
       </c>
     </row>
-    <row r="506" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>0.92962500000000003</v>
       </c>
@@ -87902,7 +87902,7 @@
         <v>17.880821852183828</v>
       </c>
     </row>
-    <row r="507" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>0.93498700000000001</v>
       </c>
@@ -88075,7 +88075,7 @@
         <v>17.74733422527639</v>
       </c>
     </row>
-    <row r="508" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>0.93565699999999996</v>
       </c>
@@ -88248,7 +88248,7 @@
         <v>17.730740916274804</v>
       </c>
     </row>
-    <row r="509" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>0.93632700000000002</v>
       </c>
@@ -88421,7 +88421,7 @@
         <v>17.714166689344616</v>
       </c>
     </row>
-    <row r="510" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>0.93900799999999995</v>
       </c>
@@ -88594,7 +88594,7 @@
         <v>17.648035301674263</v>
       </c>
     </row>
-    <row r="511" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>0.94101900000000005</v>
       </c>
@@ -88767,7 +88767,7 @@
         <v>17.598629452575025</v>
       </c>
     </row>
-    <row r="512" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>0.94235899999999995</v>
       </c>
@@ -88940,7 +88940,7 @@
         <v>17.565802721444136</v>
       </c>
     </row>
-    <row r="513" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>0.94369999999999998</v>
       </c>
@@ -89113,7 +89113,7 @@
         <v>17.533026536202179</v>
       </c>
     </row>
-    <row r="514" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>0.94437000000000004</v>
       </c>
@@ -89286,7 +89286,7 @@
         <v>17.516678703804814</v>
       </c>
     </row>
-    <row r="515" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>0.94906199999999996</v>
       </c>
@@ -89459,7 +89459,7 @@
         <v>17.402715509764192</v>
       </c>
     </row>
-    <row r="516" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>0.94973200000000002</v>
       </c>
@@ -89632,7 +89632,7 @@
         <v>17.386515909610871</v>
       </c>
     </row>
-    <row r="517" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>0.95040199999999997</v>
       </c>
@@ -89805,7 +89805,7 @@
         <v>17.370334682506439</v>
       </c>
     </row>
-    <row r="518" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>0.95107200000000003</v>
       </c>
@@ -89978,7 +89978,7 @@
         <v>17.354171795605232</v>
       </c>
     </row>
-    <row r="519" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>0.95174300000000001</v>
       </c>
@@ -90151,7 +90151,7 @@
         <v>17.338003133421019</v>
       </c>
     </row>
-    <row r="520" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>0.95308300000000001</v>
       </c>
@@ -90324,7 +90324,7 @@
         <v>17.30576882060096</v>
       </c>
     </row>
-    <row r="521" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>0.95375299999999996</v>
       </c>
@@ -90497,7 +90497,7 @@
         <v>17.289678994813045</v>
       </c>
     </row>
-    <row r="522" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>0.95442400000000005</v>
       </c>
@@ -90670,7 +90670,7 @@
         <v>17.273583372185307</v>
       </c>
     </row>
-    <row r="523" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>0.96045599999999998</v>
       </c>
@@ -90843,7 +90843,7 @@
         <v>17.129703967781424</v>
       </c>
     </row>
-    <row r="524" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>0.96246600000000004</v>
       </c>
@@ -91016,7 +91016,7 @@
         <v>17.082082717622164</v>
       </c>
     </row>
-    <row r="525" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>0.96380699999999997</v>
       </c>
@@ -91189,7 +91189,7 @@
         <v>17.050400482109012</v>
       </c>
     </row>
-    <row r="526" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>0.96447700000000003</v>
       </c>
@@ -91362,7 +91362,7 @@
         <v>17.034597755545043</v>
       </c>
     </row>
-    <row r="527" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>0.96514699999999998</v>
       </c>
@@ -91535,7 +91535,7 @@
         <v>17.018812697368972</v>
       </c>
     </row>
-    <row r="528" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>0.96648800000000001</v>
       </c>
@@ -91708,7 +91708,7 @@
         <v>16.987271967675227</v>
       </c>
     </row>
-    <row r="529" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>0.96916899999999995</v>
       </c>
@@ -91881,7 +91881,7 @@
         <v>16.924424867245875</v>
       </c>
     </row>
-    <row r="530" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>0.97319</v>
       </c>
